--- a/service/dayforecastonfcst.xlsx
+++ b/service/dayforecastonfcst.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>11/03/2023</t>
+          <t>14/03/2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>55.9</v>
+        <v>124.8</v>
       </c>
       <c r="F3" t="n">
         <v>9</v>
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>79.3</v>
+        <v>171.6</v>
       </c>
       <c r="F4" t="n">
         <v>10</v>
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>91</v>
+        <v>187.2</v>
       </c>
       <c r="F5" t="n">
         <v>11</v>
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100.1</v>
+        <v>156</v>
       </c>
       <c r="F6" t="n">
         <v>12</v>
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>72.8</v>
+        <v>118.3</v>
       </c>
       <c r="F7" t="n">
         <v>13</v>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>55.9</v>
+        <v>123.5</v>
       </c>
       <c r="F8" t="n">
         <v>14</v>
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>58.5</v>
+        <v>126.1</v>
       </c>
       <c r="F9" t="n">
         <v>15</v>
@@ -733,7 +733,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>52</v>
+        <v>130</v>
       </c>
       <c r="F10" t="n">
         <v>16</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>58.5</v>
+        <v>131.3</v>
       </c>
       <c r="F11" t="n">
         <v>17</v>
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>52</v>
+        <v>128.7</v>
       </c>
       <c r="F12" t="n">
         <v>18</v>
@@ -826,7 +826,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>27.3</v>
+        <v>89.7</v>
       </c>
       <c r="F13" t="n">
         <v>19</v>
@@ -857,7 +857,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>14.3</v>
+        <v>42.9</v>
       </c>
       <c r="F14" t="n">
         <v>20</v>
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>96.2</v>
+        <v>145.6</v>
       </c>
       <c r="F19" t="n">
         <v>9</v>
@@ -1043,7 +1043,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>80.59999999999999</v>
+        <v>189.8</v>
       </c>
       <c r="F20" t="n">
         <v>10</v>
@@ -1074,7 +1074,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>93.59999999999999</v>
+        <v>189.8</v>
       </c>
       <c r="F21" t="n">
         <v>11</v>
@@ -1105,7 +1105,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>98.8</v>
+        <v>175.5</v>
       </c>
       <c r="F22" t="n">
         <v>12</v>
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>63.7</v>
+        <v>115.7</v>
       </c>
       <c r="F23" t="n">
         <v>13</v>
@@ -1167,7 +1167,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>96.2</v>
+        <v>161.2</v>
       </c>
       <c r="F24" t="n">
         <v>14</v>
@@ -1198,7 +1198,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>62.4</v>
+        <v>132.6</v>
       </c>
       <c r="F25" t="n">
         <v>15</v>
@@ -1229,7 +1229,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>62.4</v>
+        <v>171.6</v>
       </c>
       <c r="F26" t="n">
         <v>16</v>
@@ -1260,7 +1260,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>57.2</v>
+        <v>149.5</v>
       </c>
       <c r="F27" t="n">
         <v>17</v>
@@ -1291,7 +1291,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>57.2</v>
+        <v>179.4</v>
       </c>
       <c r="F28" t="n">
         <v>18</v>
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>37.7</v>
+        <v>140.4</v>
       </c>
       <c r="F29" t="n">
         <v>19</v>
@@ -1353,7 +1353,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>22.1</v>
+        <v>107.9</v>
       </c>
       <c r="F30" t="n">
         <v>20</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="F34" t="n">
         <v>8</v>
@@ -1508,7 +1508,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="F35" t="n">
         <v>9</v>
@@ -1539,7 +1539,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="F36" t="n">
         <v>10</v>
@@ -1570,7 +1570,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="F37" t="n">
         <v>11</v>
@@ -1601,7 +1601,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="F38" t="n">
         <v>12</v>
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="F39" t="n">
         <v>13</v>
@@ -1663,7 +1663,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="F40" t="n">
         <v>14</v>
@@ -1694,7 +1694,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="F41" t="n">
         <v>15</v>
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="F42" t="n">
         <v>16</v>
@@ -1756,7 +1756,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="F43" t="n">
         <v>17</v>
@@ -1787,7 +1787,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="F44" t="n">
         <v>18</v>
@@ -1818,7 +1818,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="F45" t="n">
         <v>19</v>
@@ -1849,7 +1849,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="F46" t="n">
         <v>20</v>
@@ -1880,7 +1880,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F47" t="n">
         <v>21</v>
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F48" t="n">
         <v>22</v>
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F49" t="n">
         <v>23</v>
@@ -1973,7 +1973,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="F50" t="n">
         <v>8</v>
@@ -2004,7 +2004,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F51" t="n">
         <v>9</v>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="F52" t="n">
         <v>10</v>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="F53" t="n">
         <v>11</v>
@@ -2097,7 +2097,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="F54" t="n">
         <v>12</v>
@@ -2128,7 +2128,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="F55" t="n">
         <v>13</v>
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="F56" t="n">
         <v>14</v>
@@ -2190,7 +2190,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F57" t="n">
         <v>15</v>
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="F58" t="n">
         <v>16</v>
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="F59" t="n">
         <v>17</v>
@@ -2283,7 +2283,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="F60" t="n">
         <v>18</v>
@@ -2314,7 +2314,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="F61" t="n">
         <v>19</v>
@@ -2345,7 +2345,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="F62" t="n">
         <v>20</v>
@@ -2376,7 +2376,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F63" t="n">
         <v>21</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="F64" t="n">
         <v>22</v>
@@ -2438,7 +2438,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F65" t="n">
         <v>23</v>
@@ -2469,7 +2469,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="F66" t="n">
         <v>8</v>
@@ -2500,7 +2500,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>86</v>
+        <v>139</v>
       </c>
       <c r="F67" t="n">
         <v>9</v>
@@ -2531,7 +2531,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>93</v>
+        <v>169</v>
       </c>
       <c r="F68" t="n">
         <v>10</v>
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>97</v>
+        <v>157</v>
       </c>
       <c r="F69" t="n">
         <v>11</v>
@@ -2593,7 +2593,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="F70" t="n">
         <v>12</v>
@@ -2624,7 +2624,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c r="F71" t="n">
         <v>13</v>
@@ -2655,7 +2655,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>67</v>
+        <v>132</v>
       </c>
       <c r="F72" t="n">
         <v>14</v>
@@ -2686,7 +2686,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="F73" t="n">
         <v>15</v>
@@ -2717,7 +2717,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="F74" t="n">
         <v>16</v>
@@ -2748,7 +2748,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="F75" t="n">
         <v>17</v>
@@ -2779,7 +2779,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="F76" t="n">
         <v>18</v>
@@ -2810,7 +2810,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="F77" t="n">
         <v>19</v>
@@ -2841,7 +2841,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="F78" t="n">
         <v>20</v>
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="F79" t="n">
         <v>21</v>
@@ -2903,7 +2903,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F80" t="n">
         <v>22</v>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F81" t="n">
         <v>23</v>
@@ -2965,7 +2965,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F82" t="n">
         <v>8</v>
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="F83" t="n">
         <v>9</v>
@@ -3027,7 +3027,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="F84" t="n">
         <v>10</v>
@@ -3058,7 +3058,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="F85" t="n">
         <v>11</v>
@@ -3089,7 +3089,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="F86" t="n">
         <v>12</v>
@@ -3120,7 +3120,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F87" t="n">
         <v>13</v>
@@ -3151,7 +3151,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="F88" t="n">
         <v>14</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F90" t="n">
         <v>16</v>
@@ -3244,7 +3244,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F91" t="n">
         <v>17</v>
@@ -3275,7 +3275,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F92" t="n">
         <v>18</v>
@@ -3306,7 +3306,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F93" t="n">
         <v>19</v>
@@ -3337,7 +3337,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F94" t="n">
         <v>20</v>
@@ -3368,7 +3368,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F95" t="n">
         <v>21</v>
@@ -3399,7 +3399,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F96" t="n">
         <v>22</v>
@@ -3430,7 +3430,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F97" t="n">
         <v>23</v>
@@ -3461,7 +3461,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F98" t="n">
         <v>8</v>
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="F99" t="n">
         <v>9</v>
@@ -3523,7 +3523,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="F100" t="n">
         <v>10</v>
@@ -3554,7 +3554,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="F101" t="n">
         <v>11</v>
@@ -3585,7 +3585,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F102" t="n">
         <v>12</v>
@@ -3616,7 +3616,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="F103" t="n">
         <v>13</v>
@@ -3647,7 +3647,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="F104" t="n">
         <v>14</v>
@@ -3678,7 +3678,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="F105" t="n">
         <v>15</v>
@@ -3709,7 +3709,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="F106" t="n">
         <v>16</v>
@@ -3740,7 +3740,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="F107" t="n">
         <v>17</v>
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="F108" t="n">
         <v>18</v>
@@ -3802,7 +3802,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F109" t="n">
         <v>19</v>
@@ -3833,7 +3833,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F110" t="n">
         <v>20</v>
@@ -3864,7 +3864,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F111" t="n">
         <v>21</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F112" t="n">
         <v>22</v>
@@ -4050,7 +4050,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F117" t="n">
         <v>3</v>
@@ -4081,7 +4081,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F118" t="n">
         <v>4</v>
@@ -4112,7 +4112,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F119" t="n">
         <v>5</v>
@@ -4143,7 +4143,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F120" t="n">
         <v>6</v>
@@ -4174,7 +4174,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="F121" t="n">
         <v>7</v>
@@ -4236,7 +4236,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123" t="n">
         <v>9</v>
@@ -4298,7 +4298,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F125" t="n">
         <v>11</v>
@@ -4329,7 +4329,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F126" t="n">
         <v>12</v>
@@ -4360,7 +4360,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F127" t="n">
         <v>13</v>
@@ -4422,7 +4422,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F129" t="n">
         <v>15</v>
@@ -4515,7 +4515,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F132" t="n">
         <v>18</v>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F133" t="n">
         <v>19</v>
@@ -4825,7 +4825,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F142" t="n">
         <v>12</v>
@@ -4856,7 +4856,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143" t="n">
         <v>13</v>
@@ -4918,7 +4918,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F145" t="n">
         <v>15</v>
@@ -4949,7 +4949,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F146" t="n">
         <v>16</v>
@@ -4980,7 +4980,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F147" t="n">
         <v>17</v>
@@ -5011,7 +5011,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F148" t="n">
         <v>18</v>
@@ -5042,7 +5042,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F149" t="n">
         <v>19</v>
@@ -5228,7 +5228,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="F155" t="n">
         <v>9</v>
@@ -5259,7 +5259,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F156" t="n">
         <v>10</v>
@@ -5290,7 +5290,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F157" t="n">
         <v>11</v>
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F158" t="n">
         <v>12</v>
@@ -5352,7 +5352,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F159" t="n">
         <v>13</v>
@@ -5383,7 +5383,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F160" t="n">
         <v>14</v>
@@ -5414,7 +5414,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="F161" t="n">
         <v>15</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F162" t="n">
         <v>16</v>
@@ -5476,7 +5476,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F163" t="n">
         <v>17</v>
@@ -5507,7 +5507,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="F164" t="n">
         <v>18</v>
@@ -5538,7 +5538,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F165" t="n">
         <v>19</v>
@@ -5569,7 +5569,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F166" t="n">
         <v>20</v>
@@ -5693,7 +5693,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F170" t="n">
         <v>8</v>
@@ -5724,7 +5724,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F171" t="n">
         <v>9</v>
@@ -5755,7 +5755,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F172" t="n">
         <v>10</v>
@@ -5786,7 +5786,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F173" t="n">
         <v>11</v>
@@ -5817,7 +5817,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F174" t="n">
         <v>12</v>
@@ -5848,7 +5848,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F175" t="n">
         <v>13</v>
@@ -5879,7 +5879,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F176" t="n">
         <v>14</v>
@@ -5910,7 +5910,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F177" t="n">
         <v>15</v>
@@ -5941,7 +5941,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F178" t="n">
         <v>16</v>
@@ -5972,7 +5972,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F179" t="n">
         <v>17</v>
@@ -6003,7 +6003,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="F180" t="n">
         <v>18</v>
@@ -6034,7 +6034,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F181" t="n">
         <v>19</v>
@@ -6065,7 +6065,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F182" t="n">
         <v>20</v>
@@ -6189,7 +6189,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="F186" t="n">
         <v>8</v>
@@ -6220,7 +6220,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="F187" t="n">
         <v>10</v>
@@ -6251,7 +6251,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F188" t="n">
         <v>8</v>
@@ -6282,7 +6282,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="F189" t="n">
         <v>8</v>
@@ -6313,7 +6313,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="F190" t="n">
         <v>9</v>
@@ -6344,7 +6344,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>56</v>
+        <v>136</v>
       </c>
       <c r="F191" t="n">
         <v>10</v>
@@ -6375,7 +6375,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="F192" t="n">
         <v>11</v>
@@ -6406,7 +6406,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="F193" t="n">
         <v>12</v>
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="F194" t="n">
         <v>13</v>
@@ -6468,7 +6468,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="F195" t="n">
         <v>14</v>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="F196" t="n">
         <v>15</v>
@@ -6530,7 +6530,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="F197" t="n">
         <v>16</v>
@@ -6561,7 +6561,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="F198" t="n">
         <v>17</v>
@@ -6592,7 +6592,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="F199" t="n">
         <v>18</v>
@@ -6623,7 +6623,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="F200" t="n">
         <v>19</v>
@@ -6778,7 +6778,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F205" t="n">
         <v>8</v>
@@ -6809,7 +6809,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F206" t="n">
         <v>9</v>
@@ -6840,7 +6840,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F207" t="n">
         <v>10</v>
@@ -6902,7 +6902,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F209" t="n">
         <v>12</v>
@@ -6933,7 +6933,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F210" t="n">
         <v>13</v>
@@ -6995,7 +6995,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F212" t="n">
         <v>15</v>
@@ -7026,7 +7026,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F213" t="n">
         <v>16</v>
@@ -7057,7 +7057,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F214" t="n">
         <v>17</v>
@@ -7088,7 +7088,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F215" t="n">
         <v>18</v>
@@ -7119,7 +7119,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F216" t="n">
         <v>19</v>
@@ -7305,7 +7305,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="F222" t="n">
         <v>9</v>
@@ -7336,7 +7336,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F223" t="n">
         <v>10</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F224" t="n">
         <v>11</v>
@@ -7398,7 +7398,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F225" t="n">
         <v>12</v>
@@ -7429,7 +7429,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F226" t="n">
         <v>13</v>
@@ -7460,7 +7460,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F227" t="n">
         <v>14</v>
@@ -7491,7 +7491,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F228" t="n">
         <v>15</v>
@@ -7522,7 +7522,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="F229" t="n">
         <v>16</v>
@@ -7553,7 +7553,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="F230" t="n">
         <v>17</v>
@@ -7584,7 +7584,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="F231" t="n">
         <v>18</v>
@@ -7615,7 +7615,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="F232" t="n">
         <v>19</v>
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F233" t="n">
         <v>20</v>
@@ -7801,7 +7801,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F238" t="n">
         <v>9</v>
@@ -7832,7 +7832,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F239" t="n">
         <v>10</v>
@@ -7863,7 +7863,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F240" t="n">
         <v>11</v>
@@ -7894,7 +7894,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F241" t="n">
         <v>12</v>
@@ -8018,7 +8018,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F245" t="n">
         <v>16</v>
@@ -8049,7 +8049,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F246" t="n">
         <v>17</v>
@@ -8080,7 +8080,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F247" t="n">
         <v>18</v>
@@ -8111,7 +8111,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F248" t="n">
         <v>19</v>
@@ -8142,7 +8142,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F249" t="n">
         <v>20</v>
@@ -8266,7 +8266,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F253" t="n">
         <v>8</v>
@@ -8297,7 +8297,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F254" t="n">
         <v>9</v>
@@ -8328,7 +8328,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F255" t="n">
         <v>10</v>
@@ -8359,7 +8359,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F256" t="n">
         <v>11</v>
@@ -8390,7 +8390,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F257" t="n">
         <v>12</v>
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F258" t="n">
         <v>13</v>
@@ -8452,7 +8452,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F259" t="n">
         <v>14</v>
@@ -8483,7 +8483,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F260" t="n">
         <v>15</v>
@@ -8514,7 +8514,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="F261" t="n">
         <v>16</v>
@@ -8545,7 +8545,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="F262" t="n">
         <v>17</v>
@@ -8576,7 +8576,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F263" t="n">
         <v>18</v>
@@ -8607,7 +8607,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="F264" t="n">
         <v>19</v>
@@ -8638,7 +8638,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F265" t="n">
         <v>20</v>
@@ -8669,7 +8669,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F266" t="n">
         <v>21</v>
@@ -8700,7 +8700,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F267" t="n">
         <v>22</v>

--- a/service/dayforecastonfcst.xlsx
+++ b/service/dayforecastonfcst.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>14/03/2023</t>
+          <t>18/03/2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>124.8</v>
+        <v>63.7</v>
       </c>
       <c r="F3" t="n">
         <v>9</v>
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>171.6</v>
+        <v>89.7</v>
       </c>
       <c r="F4" t="n">
         <v>10</v>
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>187.2</v>
+        <v>102.7</v>
       </c>
       <c r="F5" t="n">
         <v>11</v>
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>156</v>
+        <v>111.8</v>
       </c>
       <c r="F6" t="n">
         <v>12</v>
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>118.3</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F7" t="n">
         <v>13</v>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>123.5</v>
+        <v>63.7</v>
       </c>
       <c r="F8" t="n">
         <v>14</v>
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>126.1</v>
+        <v>65</v>
       </c>
       <c r="F9" t="n">
         <v>15</v>
@@ -733,7 +733,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>130</v>
+        <v>57.2</v>
       </c>
       <c r="F10" t="n">
         <v>16</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>131.3</v>
+        <v>66.3</v>
       </c>
       <c r="F11" t="n">
         <v>17</v>
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>128.7</v>
+        <v>58.5</v>
       </c>
       <c r="F12" t="n">
         <v>18</v>
@@ -826,7 +826,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>89.7</v>
+        <v>31.2</v>
       </c>
       <c r="F13" t="n">
         <v>19</v>
@@ -857,7 +857,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>42.9</v>
+        <v>15.6</v>
       </c>
       <c r="F14" t="n">
         <v>20</v>
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>145.6</v>
+        <v>119.6</v>
       </c>
       <c r="F19" t="n">
         <v>9</v>
@@ -1043,7 +1043,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>189.8</v>
+        <v>101.4</v>
       </c>
       <c r="F20" t="n">
         <v>10</v>
@@ -1074,7 +1074,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>189.8</v>
+        <v>117</v>
       </c>
       <c r="F21" t="n">
         <v>11</v>
@@ -1105,7 +1105,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>175.5</v>
+        <v>123.5</v>
       </c>
       <c r="F22" t="n">
         <v>12</v>
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>115.7</v>
+        <v>79.3</v>
       </c>
       <c r="F23" t="n">
         <v>13</v>
@@ -1167,7 +1167,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>161.2</v>
+        <v>120.9</v>
       </c>
       <c r="F24" t="n">
         <v>14</v>
@@ -1198,7 +1198,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>132.6</v>
+        <v>78</v>
       </c>
       <c r="F25" t="n">
         <v>15</v>
@@ -1229,7 +1229,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>171.6</v>
+        <v>78</v>
       </c>
       <c r="F26" t="n">
         <v>16</v>
@@ -1260,7 +1260,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>149.5</v>
+        <v>72.8</v>
       </c>
       <c r="F27" t="n">
         <v>17</v>
@@ -1291,7 +1291,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>179.4</v>
+        <v>71.5</v>
       </c>
       <c r="F28" t="n">
         <v>18</v>
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>140.4</v>
+        <v>46.8</v>
       </c>
       <c r="F29" t="n">
         <v>19</v>
@@ -1353,7 +1353,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>107.9</v>
+        <v>27.3</v>
       </c>
       <c r="F30" t="n">
         <v>20</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="F34" t="n">
         <v>8</v>
@@ -1508,7 +1508,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="F35" t="n">
         <v>9</v>
@@ -1539,7 +1539,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="F36" t="n">
         <v>10</v>
@@ -1570,7 +1570,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F37" t="n">
         <v>11</v>
@@ -1601,7 +1601,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="F38" t="n">
         <v>12</v>
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="F39" t="n">
         <v>13</v>
@@ -1663,7 +1663,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="F40" t="n">
         <v>14</v>
@@ -1694,7 +1694,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="F41" t="n">
         <v>15</v>
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="F42" t="n">
         <v>16</v>
@@ -1756,7 +1756,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="F43" t="n">
         <v>17</v>
@@ -1787,7 +1787,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="F44" t="n">
         <v>18</v>
@@ -1818,7 +1818,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="F45" t="n">
         <v>19</v>
@@ -1849,7 +1849,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="F46" t="n">
         <v>20</v>
@@ -1880,7 +1880,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F47" t="n">
         <v>21</v>
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F48" t="n">
         <v>22</v>
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F49" t="n">
         <v>23</v>
@@ -1973,7 +1973,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F50" t="n">
         <v>8</v>
@@ -2004,7 +2004,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F51" t="n">
         <v>9</v>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="F52" t="n">
         <v>10</v>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="F53" t="n">
         <v>11</v>
@@ -2097,7 +2097,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F54" t="n">
         <v>12</v>
@@ -2128,7 +2128,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F55" t="n">
         <v>13</v>
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F56" t="n">
         <v>14</v>
@@ -2190,7 +2190,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F57" t="n">
         <v>15</v>
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="F58" t="n">
         <v>16</v>
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F59" t="n">
         <v>17</v>
@@ -2283,7 +2283,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="F60" t="n">
         <v>18</v>
@@ -2314,7 +2314,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="F61" t="n">
         <v>19</v>
@@ -2345,7 +2345,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="F62" t="n">
         <v>20</v>
@@ -2376,7 +2376,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="F63" t="n">
         <v>21</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="F64" t="n">
         <v>22</v>
@@ -2438,7 +2438,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F65" t="n">
         <v>23</v>
@@ -2469,7 +2469,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F66" t="n">
         <v>8</v>
@@ -2500,7 +2500,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>139</v>
+        <v>90</v>
       </c>
       <c r="F67" t="n">
         <v>9</v>
@@ -2531,7 +2531,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>169</v>
+        <v>97</v>
       </c>
       <c r="F68" t="n">
         <v>10</v>
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="F69" t="n">
         <v>11</v>
@@ -2593,7 +2593,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="F70" t="n">
         <v>12</v>
@@ -2624,7 +2624,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>122</v>
+        <v>77</v>
       </c>
       <c r="F71" t="n">
         <v>13</v>
@@ -2655,7 +2655,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>132</v>
+        <v>70</v>
       </c>
       <c r="F72" t="n">
         <v>14</v>
@@ -2686,7 +2686,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="F73" t="n">
         <v>15</v>
@@ -2717,7 +2717,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="F74" t="n">
         <v>16</v>
@@ -2748,7 +2748,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="F75" t="n">
         <v>17</v>
@@ -2779,7 +2779,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>123</v>
+        <v>64</v>
       </c>
       <c r="F76" t="n">
         <v>18</v>
@@ -2810,7 +2810,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="F77" t="n">
         <v>19</v>
@@ -2841,7 +2841,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F78" t="n">
         <v>20</v>
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="F79" t="n">
         <v>21</v>
@@ -2903,7 +2903,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F80" t="n">
         <v>22</v>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F81" t="n">
         <v>23</v>
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="F83" t="n">
         <v>9</v>
@@ -3027,7 +3027,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="F84" t="n">
         <v>10</v>
@@ -3058,7 +3058,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="F85" t="n">
         <v>11</v>
@@ -3089,7 +3089,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="F86" t="n">
         <v>12</v>
@@ -3120,7 +3120,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F87" t="n">
         <v>13</v>
@@ -3151,7 +3151,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F88" t="n">
         <v>14</v>
@@ -3182,7 +3182,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F89" t="n">
         <v>15</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F90" t="n">
         <v>16</v>
@@ -3244,7 +3244,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F91" t="n">
         <v>17</v>
@@ -3275,7 +3275,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F92" t="n">
         <v>18</v>
@@ -3306,7 +3306,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F93" t="n">
         <v>19</v>
@@ -3337,7 +3337,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F94" t="n">
         <v>20</v>
@@ -3368,7 +3368,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F95" t="n">
         <v>21</v>
@@ -3399,7 +3399,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F96" t="n">
         <v>22</v>
@@ -3430,7 +3430,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F97" t="n">
         <v>23</v>
@@ -3461,7 +3461,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F98" t="n">
         <v>8</v>
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="F99" t="n">
         <v>9</v>
@@ -3523,7 +3523,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="F100" t="n">
         <v>10</v>
@@ -3554,7 +3554,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F101" t="n">
         <v>11</v>
@@ -3585,7 +3585,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F102" t="n">
         <v>12</v>
@@ -3616,7 +3616,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F103" t="n">
         <v>13</v>
@@ -3647,7 +3647,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="F104" t="n">
         <v>14</v>
@@ -3678,7 +3678,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="F105" t="n">
         <v>15</v>
@@ -3709,7 +3709,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="F106" t="n">
         <v>16</v>
@@ -3740,7 +3740,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="F107" t="n">
         <v>17</v>
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="F108" t="n">
         <v>18</v>
@@ -3802,7 +3802,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F109" t="n">
         <v>19</v>
@@ -3833,7 +3833,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F110" t="n">
         <v>20</v>
@@ -3864,7 +3864,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F111" t="n">
         <v>21</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F112" t="n">
         <v>22</v>
@@ -3957,7 +3957,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F114" t="n">
         <v>0</v>
@@ -4050,7 +4050,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F117" t="n">
         <v>3</v>
@@ -4081,7 +4081,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
         <v>4</v>
@@ -4112,7 +4112,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F119" t="n">
         <v>5</v>
@@ -4143,7 +4143,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F120" t="n">
         <v>6</v>
@@ -4174,7 +4174,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="F121" t="n">
         <v>7</v>
@@ -4236,7 +4236,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F123" t="n">
         <v>9</v>
@@ -4329,7 +4329,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F126" t="n">
         <v>12</v>
@@ -4360,7 +4360,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
         <v>13</v>
@@ -4422,7 +4422,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129" t="n">
         <v>15</v>
@@ -4515,7 +4515,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132" t="n">
         <v>18</v>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F133" t="n">
         <v>19</v>
@@ -4763,7 +4763,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F140" t="n">
         <v>10</v>
@@ -4794,7 +4794,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F141" t="n">
         <v>11</v>
@@ -4825,7 +4825,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F142" t="n">
         <v>12</v>
@@ -4856,7 +4856,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F143" t="n">
         <v>13</v>
@@ -4918,7 +4918,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F145" t="n">
         <v>15</v>
@@ -4949,7 +4949,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F146" t="n">
         <v>16</v>
@@ -4980,7 +4980,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F147" t="n">
         <v>17</v>
@@ -5011,7 +5011,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F148" t="n">
         <v>18</v>
@@ -5042,7 +5042,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F149" t="n">
         <v>19</v>
@@ -5228,7 +5228,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="F155" t="n">
         <v>9</v>
@@ -5259,7 +5259,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F156" t="n">
         <v>10</v>
@@ -5290,7 +5290,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F157" t="n">
         <v>11</v>
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F158" t="n">
         <v>12</v>
@@ -5352,7 +5352,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F159" t="n">
         <v>13</v>
@@ -5383,7 +5383,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F160" t="n">
         <v>14</v>
@@ -5414,7 +5414,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="F161" t="n">
         <v>15</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F162" t="n">
         <v>16</v>
@@ -5476,7 +5476,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="F163" t="n">
         <v>17</v>
@@ -5507,7 +5507,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="F164" t="n">
         <v>18</v>
@@ -5538,7 +5538,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F165" t="n">
         <v>19</v>
@@ -5569,7 +5569,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F166" t="n">
         <v>20</v>
@@ -5693,7 +5693,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F170" t="n">
         <v>8</v>
@@ -5724,7 +5724,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F171" t="n">
         <v>9</v>
@@ -5755,7 +5755,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F172" t="n">
         <v>10</v>
@@ -5786,7 +5786,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F173" t="n">
         <v>11</v>
@@ -5817,7 +5817,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F174" t="n">
         <v>12</v>
@@ -5848,7 +5848,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F175" t="n">
         <v>13</v>
@@ -5879,7 +5879,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F176" t="n">
         <v>14</v>
@@ -5910,7 +5910,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F177" t="n">
         <v>15</v>
@@ -5941,7 +5941,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F178" t="n">
         <v>16</v>
@@ -5972,7 +5972,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F179" t="n">
         <v>17</v>
@@ -6003,7 +6003,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F180" t="n">
         <v>18</v>
@@ -6034,7 +6034,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F181" t="n">
         <v>19</v>
@@ -6065,7 +6065,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="F182" t="n">
         <v>20</v>
@@ -6189,7 +6189,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F186" t="n">
         <v>8</v>
@@ -6220,7 +6220,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="F187" t="n">
         <v>10</v>
@@ -6251,7 +6251,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F188" t="n">
         <v>8</v>
@@ -6282,7 +6282,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="F189" t="n">
         <v>8</v>
@@ -6313,7 +6313,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>108</v>
+        <v>45</v>
       </c>
       <c r="F190" t="n">
         <v>9</v>
@@ -6344,7 +6344,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>136</v>
+        <v>56</v>
       </c>
       <c r="F191" t="n">
         <v>10</v>
@@ -6375,7 +6375,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="F192" t="n">
         <v>11</v>
@@ -6406,7 +6406,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="F193" t="n">
         <v>12</v>
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="F194" t="n">
         <v>13</v>
@@ -6468,7 +6468,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="F195" t="n">
         <v>14</v>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="F196" t="n">
         <v>15</v>
@@ -6530,7 +6530,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>113</v>
+        <v>43</v>
       </c>
       <c r="F197" t="n">
         <v>16</v>
@@ -6561,7 +6561,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="F198" t="n">
         <v>17</v>
@@ -6592,7 +6592,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="F199" t="n">
         <v>18</v>
@@ -6623,7 +6623,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="F200" t="n">
         <v>19</v>
@@ -6778,7 +6778,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F205" t="n">
         <v>8</v>
@@ -6809,7 +6809,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F206" t="n">
         <v>9</v>
@@ -6840,7 +6840,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F207" t="n">
         <v>10</v>
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F208" t="n">
         <v>11</v>
@@ -6902,7 +6902,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F209" t="n">
         <v>12</v>
@@ -6933,7 +6933,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F210" t="n">
         <v>13</v>
@@ -6964,7 +6964,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F211" t="n">
         <v>14</v>
@@ -6995,7 +6995,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F212" t="n">
         <v>15</v>
@@ -7026,7 +7026,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F213" t="n">
         <v>16</v>
@@ -7057,7 +7057,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F214" t="n">
         <v>17</v>
@@ -7088,7 +7088,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F215" t="n">
         <v>18</v>
@@ -7119,7 +7119,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F216" t="n">
         <v>19</v>
@@ -7305,7 +7305,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="F222" t="n">
         <v>9</v>
@@ -7336,7 +7336,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F223" t="n">
         <v>10</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F224" t="n">
         <v>11</v>
@@ -7398,7 +7398,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F225" t="n">
         <v>12</v>
@@ -7429,7 +7429,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F226" t="n">
         <v>13</v>
@@ -7460,7 +7460,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F227" t="n">
         <v>14</v>
@@ -7491,7 +7491,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="F228" t="n">
         <v>15</v>
@@ -7522,7 +7522,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="F229" t="n">
         <v>16</v>
@@ -7553,7 +7553,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="F230" t="n">
         <v>17</v>
@@ -7584,7 +7584,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="F231" t="n">
         <v>18</v>
@@ -7615,7 +7615,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="F232" t="n">
         <v>19</v>
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F233" t="n">
         <v>20</v>
@@ -7801,7 +7801,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F238" t="n">
         <v>9</v>
@@ -7832,7 +7832,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F239" t="n">
         <v>10</v>
@@ -7863,7 +7863,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F240" t="n">
         <v>11</v>
@@ -7894,7 +7894,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F241" t="n">
         <v>12</v>
@@ -8018,7 +8018,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F245" t="n">
         <v>16</v>
@@ -8049,7 +8049,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F246" t="n">
         <v>17</v>
@@ -8080,7 +8080,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F247" t="n">
         <v>18</v>
@@ -8111,7 +8111,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F248" t="n">
         <v>19</v>
@@ -8142,7 +8142,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F249" t="n">
         <v>20</v>
@@ -8266,7 +8266,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F253" t="n">
         <v>8</v>
@@ -8297,7 +8297,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F254" t="n">
         <v>9</v>
@@ -8328,7 +8328,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F255" t="n">
         <v>10</v>
@@ -8359,7 +8359,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F256" t="n">
         <v>11</v>
@@ -8390,7 +8390,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F257" t="n">
         <v>12</v>
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F258" t="n">
         <v>13</v>
@@ -8452,7 +8452,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F259" t="n">
         <v>14</v>
@@ -8483,7 +8483,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="F260" t="n">
         <v>15</v>
@@ -8514,7 +8514,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F261" t="n">
         <v>16</v>
@@ -8545,7 +8545,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="F262" t="n">
         <v>17</v>
@@ -8576,7 +8576,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="F263" t="n">
         <v>18</v>
@@ -8607,7 +8607,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F264" t="n">
         <v>19</v>
@@ -8638,7 +8638,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F265" t="n">
         <v>20</v>
@@ -8669,7 +8669,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F266" t="n">
         <v>21</v>
@@ -8700,7 +8700,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F267" t="n">
         <v>22</v>

--- a/service/dayforecastonfcst.xlsx
+++ b/service/dayforecastonfcst.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>18/03/2023</t>
+          <t>21/03/2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>63.7</v>
+        <v>144.3</v>
       </c>
       <c r="F3" t="n">
         <v>9</v>
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>89.7</v>
+        <v>197.6</v>
       </c>
       <c r="F4" t="n">
         <v>10</v>
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>102.7</v>
+        <v>215.8</v>
       </c>
       <c r="F5" t="n">
         <v>11</v>
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>111.8</v>
+        <v>180.7</v>
       </c>
       <c r="F6" t="n">
         <v>12</v>
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>81.90000000000001</v>
+        <v>136.5</v>
       </c>
       <c r="F7" t="n">
         <v>13</v>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>63.7</v>
+        <v>143</v>
       </c>
       <c r="F8" t="n">
         <v>14</v>
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>65</v>
+        <v>145.6</v>
       </c>
       <c r="F9" t="n">
         <v>15</v>
@@ -733,7 +733,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>57.2</v>
+        <v>150.8</v>
       </c>
       <c r="F10" t="n">
         <v>16</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>66.3</v>
+        <v>152.1</v>
       </c>
       <c r="F11" t="n">
         <v>17</v>
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>58.5</v>
+        <v>148.2</v>
       </c>
       <c r="F12" t="n">
         <v>18</v>
@@ -826,7 +826,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>31.2</v>
+        <v>102.7</v>
       </c>
       <c r="F13" t="n">
         <v>19</v>
@@ -857,7 +857,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>15.6</v>
+        <v>49.4</v>
       </c>
       <c r="F14" t="n">
         <v>20</v>
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>119.6</v>
+        <v>158.6</v>
       </c>
       <c r="F19" t="n">
         <v>9</v>
@@ -1043,7 +1043,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>101.4</v>
+        <v>206.7</v>
       </c>
       <c r="F20" t="n">
         <v>10</v>
@@ -1074,7 +1074,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>117</v>
+        <v>206.7</v>
       </c>
       <c r="F21" t="n">
         <v>11</v>
@@ -1105,7 +1105,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>123.5</v>
+        <v>191.1</v>
       </c>
       <c r="F22" t="n">
         <v>12</v>
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>79.3</v>
+        <v>126.1</v>
       </c>
       <c r="F23" t="n">
         <v>13</v>
@@ -1167,7 +1167,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>120.9</v>
+        <v>175.5</v>
       </c>
       <c r="F24" t="n">
         <v>14</v>
@@ -1198,7 +1198,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>78</v>
+        <v>144.3</v>
       </c>
       <c r="F25" t="n">
         <v>15</v>
@@ -1229,7 +1229,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>78</v>
+        <v>187.2</v>
       </c>
       <c r="F26" t="n">
         <v>16</v>
@@ -1260,7 +1260,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>72.8</v>
+        <v>163.8</v>
       </c>
       <c r="F27" t="n">
         <v>17</v>
@@ -1291,7 +1291,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>71.5</v>
+        <v>195</v>
       </c>
       <c r="F28" t="n">
         <v>18</v>
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>46.8</v>
+        <v>153.4</v>
       </c>
       <c r="F29" t="n">
         <v>19</v>
@@ -1353,7 +1353,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>27.3</v>
+        <v>117</v>
       </c>
       <c r="F30" t="n">
         <v>20</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="F34" t="n">
         <v>8</v>
@@ -1508,7 +1508,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="F35" t="n">
         <v>9</v>
@@ -1539,7 +1539,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="F36" t="n">
         <v>10</v>
@@ -1570,7 +1570,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="F37" t="n">
         <v>11</v>
@@ -1601,7 +1601,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="F38" t="n">
         <v>12</v>
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="F39" t="n">
         <v>13</v>
@@ -1663,7 +1663,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="F40" t="n">
         <v>14</v>
@@ -1694,7 +1694,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="F41" t="n">
         <v>15</v>
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="F42" t="n">
         <v>16</v>
@@ -1756,7 +1756,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="F43" t="n">
         <v>17</v>
@@ -1787,7 +1787,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="F44" t="n">
         <v>18</v>
@@ -1818,7 +1818,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="F45" t="n">
         <v>19</v>
@@ -1849,7 +1849,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="F46" t="n">
         <v>20</v>
@@ -1880,7 +1880,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="F47" t="n">
         <v>21</v>
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F48" t="n">
         <v>22</v>
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F49" t="n">
         <v>23</v>
@@ -1973,7 +1973,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F50" t="n">
         <v>8</v>
@@ -2004,7 +2004,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F51" t="n">
         <v>9</v>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="F52" t="n">
         <v>10</v>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F53" t="n">
         <v>11</v>
@@ -2097,7 +2097,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F54" t="n">
         <v>12</v>
@@ -2128,7 +2128,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F55" t="n">
         <v>13</v>
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="F56" t="n">
         <v>14</v>
@@ -2190,7 +2190,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F57" t="n">
         <v>15</v>
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="F58" t="n">
         <v>16</v>
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="F59" t="n">
         <v>17</v>
@@ -2283,7 +2283,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="F60" t="n">
         <v>18</v>
@@ -2314,7 +2314,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="F61" t="n">
         <v>19</v>
@@ -2345,7 +2345,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="F62" t="n">
         <v>20</v>
@@ -2376,7 +2376,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F63" t="n">
         <v>21</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F64" t="n">
         <v>22</v>
@@ -2438,7 +2438,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F65" t="n">
         <v>23</v>
@@ -2469,7 +2469,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="F66" t="n">
         <v>8</v>
@@ -2500,7 +2500,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>90</v>
+        <v>153</v>
       </c>
       <c r="F67" t="n">
         <v>9</v>
@@ -2531,7 +2531,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>97</v>
+        <v>185</v>
       </c>
       <c r="F68" t="n">
         <v>10</v>
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>101</v>
+        <v>172</v>
       </c>
       <c r="F69" t="n">
         <v>11</v>
@@ -2593,7 +2593,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>86</v>
+        <v>145</v>
       </c>
       <c r="F70" t="n">
         <v>12</v>
@@ -2624,7 +2624,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="F71" t="n">
         <v>13</v>
@@ -2655,7 +2655,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>70</v>
+        <v>145</v>
       </c>
       <c r="F72" t="n">
         <v>14</v>
@@ -2686,7 +2686,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="F73" t="n">
         <v>15</v>
@@ -2717,7 +2717,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="F74" t="n">
         <v>16</v>
@@ -2748,7 +2748,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="F75" t="n">
         <v>17</v>
@@ -2779,7 +2779,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>64</v>
+        <v>135</v>
       </c>
       <c r="F76" t="n">
         <v>18</v>
@@ -2810,7 +2810,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="F77" t="n">
         <v>19</v>
@@ -2841,7 +2841,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="F78" t="n">
         <v>20</v>
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="F79" t="n">
         <v>21</v>
@@ -2903,7 +2903,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F80" t="n">
         <v>22</v>
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F83" t="n">
         <v>9</v>
@@ -3027,7 +3027,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="F84" t="n">
         <v>10</v>
@@ -3058,7 +3058,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="F85" t="n">
         <v>11</v>
@@ -3089,7 +3089,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="F86" t="n">
         <v>12</v>
@@ -3120,7 +3120,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F87" t="n">
         <v>13</v>
@@ -3151,7 +3151,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F88" t="n">
         <v>14</v>
@@ -3182,7 +3182,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F89" t="n">
         <v>15</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F90" t="n">
         <v>16</v>
@@ -3244,7 +3244,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F91" t="n">
         <v>17</v>
@@ -3275,7 +3275,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F92" t="n">
         <v>18</v>
@@ -3306,7 +3306,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F93" t="n">
         <v>19</v>
@@ -3337,7 +3337,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F94" t="n">
         <v>20</v>
@@ -3368,7 +3368,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F95" t="n">
         <v>21</v>
@@ -3399,7 +3399,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F96" t="n">
         <v>22</v>
@@ -3430,7 +3430,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F97" t="n">
         <v>23</v>
@@ -3461,7 +3461,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F98" t="n">
         <v>8</v>
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="F99" t="n">
         <v>9</v>
@@ -3523,7 +3523,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="F100" t="n">
         <v>10</v>
@@ -3554,7 +3554,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F101" t="n">
         <v>11</v>
@@ -3585,7 +3585,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F102" t="n">
         <v>12</v>
@@ -3616,7 +3616,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F103" t="n">
         <v>13</v>
@@ -3647,7 +3647,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="F104" t="n">
         <v>14</v>
@@ -3678,7 +3678,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="F105" t="n">
         <v>15</v>
@@ -3709,7 +3709,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F106" t="n">
         <v>16</v>
@@ -3740,7 +3740,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F107" t="n">
         <v>17</v>
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F108" t="n">
         <v>18</v>
@@ -3802,7 +3802,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F109" t="n">
         <v>19</v>
@@ -3833,7 +3833,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F110" t="n">
         <v>20</v>
@@ -3864,7 +3864,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F111" t="n">
         <v>21</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F112" t="n">
         <v>22</v>
@@ -3957,7 +3957,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F114" t="n">
         <v>0</v>
@@ -4050,7 +4050,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F117" t="n">
         <v>3</v>
@@ -4081,7 +4081,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F118" t="n">
         <v>4</v>
@@ -4143,7 +4143,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F120" t="n">
         <v>6</v>
@@ -4174,7 +4174,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="F121" t="n">
         <v>7</v>
@@ -4236,7 +4236,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123" t="n">
         <v>9</v>
@@ -4329,7 +4329,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F126" t="n">
         <v>12</v>
@@ -4360,7 +4360,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F127" t="n">
         <v>13</v>
@@ -4422,7 +4422,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F129" t="n">
         <v>15</v>
@@ -4515,7 +4515,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F132" t="n">
         <v>18</v>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F133" t="n">
         <v>19</v>
@@ -4763,7 +4763,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F140" t="n">
         <v>10</v>
@@ -4794,7 +4794,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F141" t="n">
         <v>11</v>
@@ -4825,7 +4825,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F142" t="n">
         <v>12</v>
@@ -4856,7 +4856,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143" t="n">
         <v>13</v>
@@ -4918,7 +4918,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F145" t="n">
         <v>15</v>
@@ -4949,7 +4949,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F146" t="n">
         <v>16</v>
@@ -4980,7 +4980,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F147" t="n">
         <v>17</v>
@@ -5011,7 +5011,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F148" t="n">
         <v>18</v>
@@ -5042,7 +5042,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F149" t="n">
         <v>19</v>
@@ -5228,7 +5228,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F155" t="n">
         <v>9</v>
@@ -5259,7 +5259,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F156" t="n">
         <v>10</v>
@@ -5290,7 +5290,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F157" t="n">
         <v>11</v>
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F158" t="n">
         <v>12</v>
@@ -5352,7 +5352,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F159" t="n">
         <v>13</v>
@@ -5383,7 +5383,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F160" t="n">
         <v>14</v>
@@ -5414,7 +5414,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F161" t="n">
         <v>15</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F162" t="n">
         <v>16</v>
@@ -5476,7 +5476,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F163" t="n">
         <v>17</v>
@@ -5507,7 +5507,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F164" t="n">
         <v>18</v>
@@ -5538,7 +5538,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F165" t="n">
         <v>19</v>
@@ -5569,7 +5569,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F166" t="n">
         <v>20</v>
@@ -5693,7 +5693,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F170" t="n">
         <v>8</v>
@@ -5724,7 +5724,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F171" t="n">
         <v>9</v>
@@ -5755,7 +5755,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F172" t="n">
         <v>10</v>
@@ -5786,7 +5786,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F173" t="n">
         <v>11</v>
@@ -5817,7 +5817,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F174" t="n">
         <v>12</v>
@@ -5848,7 +5848,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F175" t="n">
         <v>13</v>
@@ -5879,7 +5879,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F176" t="n">
         <v>14</v>
@@ -5910,7 +5910,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F177" t="n">
         <v>15</v>
@@ -5941,7 +5941,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F178" t="n">
         <v>16</v>
@@ -5972,7 +5972,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F179" t="n">
         <v>17</v>
@@ -6003,7 +6003,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="F180" t="n">
         <v>18</v>
@@ -6034,7 +6034,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F181" t="n">
         <v>19</v>
@@ -6065,7 +6065,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F182" t="n">
         <v>20</v>
@@ -6189,7 +6189,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="F186" t="n">
         <v>8</v>
@@ -6220,7 +6220,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="F187" t="n">
         <v>10</v>
@@ -6251,7 +6251,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F188" t="n">
         <v>8</v>
@@ -6282,7 +6282,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="F189" t="n">
         <v>8</v>
@@ -6313,7 +6313,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="F190" t="n">
         <v>9</v>
@@ -6344,7 +6344,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>56</v>
+        <v>131</v>
       </c>
       <c r="F191" t="n">
         <v>10</v>
@@ -6375,7 +6375,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="F192" t="n">
         <v>11</v>
@@ -6406,7 +6406,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="F193" t="n">
         <v>12</v>
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="F194" t="n">
         <v>13</v>
@@ -6468,7 +6468,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="F195" t="n">
         <v>14</v>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="F196" t="n">
         <v>15</v>
@@ -6530,7 +6530,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="F197" t="n">
         <v>16</v>
@@ -6561,7 +6561,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="F198" t="n">
         <v>17</v>
@@ -6592,7 +6592,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="F199" t="n">
         <v>18</v>
@@ -6623,7 +6623,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="F200" t="n">
         <v>19</v>
@@ -6778,7 +6778,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F205" t="n">
         <v>8</v>
@@ -6809,7 +6809,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F206" t="n">
         <v>9</v>
@@ -6840,7 +6840,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F207" t="n">
         <v>10</v>
@@ -6902,7 +6902,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F209" t="n">
         <v>12</v>
@@ -6933,7 +6933,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F210" t="n">
         <v>13</v>
@@ -6995,7 +6995,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F212" t="n">
         <v>15</v>
@@ -7026,7 +7026,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F213" t="n">
         <v>16</v>
@@ -7057,7 +7057,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F214" t="n">
         <v>17</v>
@@ -7088,7 +7088,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F215" t="n">
         <v>18</v>
@@ -7119,7 +7119,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F216" t="n">
         <v>19</v>
@@ -7305,7 +7305,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F222" t="n">
         <v>9</v>
@@ -7336,7 +7336,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F223" t="n">
         <v>10</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F224" t="n">
         <v>11</v>
@@ -7398,7 +7398,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F225" t="n">
         <v>12</v>
@@ -7429,7 +7429,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F226" t="n">
         <v>13</v>
@@ -7460,7 +7460,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F227" t="n">
         <v>14</v>
@@ -7491,7 +7491,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="F228" t="n">
         <v>15</v>
@@ -7522,7 +7522,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="F229" t="n">
         <v>16</v>
@@ -7553,7 +7553,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F230" t="n">
         <v>17</v>
@@ -7584,7 +7584,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F231" t="n">
         <v>18</v>
@@ -7615,7 +7615,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F232" t="n">
         <v>19</v>
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F233" t="n">
         <v>20</v>
@@ -7801,7 +7801,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F238" t="n">
         <v>9</v>
@@ -7832,7 +7832,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F239" t="n">
         <v>10</v>
@@ -7863,7 +7863,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F240" t="n">
         <v>11</v>
@@ -7894,7 +7894,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F241" t="n">
         <v>12</v>
@@ -8018,7 +8018,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F245" t="n">
         <v>16</v>
@@ -8049,7 +8049,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F246" t="n">
         <v>17</v>
@@ -8080,7 +8080,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F247" t="n">
         <v>18</v>
@@ -8111,7 +8111,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F248" t="n">
         <v>19</v>
@@ -8142,7 +8142,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F249" t="n">
         <v>20</v>
@@ -8266,7 +8266,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F253" t="n">
         <v>8</v>
@@ -8297,7 +8297,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F254" t="n">
         <v>9</v>
@@ -8328,7 +8328,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F255" t="n">
         <v>10</v>
@@ -8359,7 +8359,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F256" t="n">
         <v>11</v>
@@ -8390,7 +8390,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F257" t="n">
         <v>12</v>
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F258" t="n">
         <v>13</v>
@@ -8452,7 +8452,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F259" t="n">
         <v>14</v>
@@ -8483,7 +8483,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F260" t="n">
         <v>15</v>
@@ -8514,7 +8514,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="F261" t="n">
         <v>16</v>
@@ -8545,7 +8545,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="F262" t="n">
         <v>17</v>
@@ -8576,7 +8576,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F263" t="n">
         <v>18</v>
@@ -8607,7 +8607,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="F264" t="n">
         <v>19</v>
@@ -8638,7 +8638,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F265" t="n">
         <v>20</v>
@@ -8669,7 +8669,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F266" t="n">
         <v>21</v>
@@ -8700,7 +8700,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F267" t="n">
         <v>22</v>

--- a/service/dayforecastonfcst.xlsx
+++ b/service/dayforecastonfcst.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>21/03/2023</t>
+          <t>24/03/2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>144.3</v>
+        <v>157.3</v>
       </c>
       <c r="F3" t="n">
         <v>9</v>
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>197.6</v>
+        <v>174.2</v>
       </c>
       <c r="F4" t="n">
         <v>10</v>
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>215.8</v>
+        <v>175.5</v>
       </c>
       <c r="F5" t="n">
         <v>11</v>
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>180.7</v>
+        <v>153.4</v>
       </c>
       <c r="F6" t="n">
         <v>12</v>
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>136.5</v>
+        <v>128.7</v>
       </c>
       <c r="F7" t="n">
         <v>13</v>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>143</v>
+        <v>118.3</v>
       </c>
       <c r="F8" t="n">
         <v>14</v>
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>145.6</v>
+        <v>139.1</v>
       </c>
       <c r="F9" t="n">
         <v>15</v>
@@ -733,7 +733,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>150.8</v>
+        <v>133.9</v>
       </c>
       <c r="F10" t="n">
         <v>16</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>152.1</v>
+        <v>128.7</v>
       </c>
       <c r="F11" t="n">
         <v>17</v>
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>148.2</v>
+        <v>126.1</v>
       </c>
       <c r="F12" t="n">
         <v>18</v>
@@ -826,7 +826,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>102.7</v>
+        <v>76.7</v>
       </c>
       <c r="F13" t="n">
         <v>19</v>
@@ -857,7 +857,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>49.4</v>
+        <v>32.5</v>
       </c>
       <c r="F14" t="n">
         <v>20</v>
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>158.6</v>
+        <v>130</v>
       </c>
       <c r="F19" t="n">
         <v>9</v>
@@ -1043,7 +1043,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>206.7</v>
+        <v>140.4</v>
       </c>
       <c r="F20" t="n">
         <v>10</v>
@@ -1074,7 +1074,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>206.7</v>
+        <v>158.6</v>
       </c>
       <c r="F21" t="n">
         <v>11</v>
@@ -1105,7 +1105,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>191.1</v>
+        <v>240.5</v>
       </c>
       <c r="F22" t="n">
         <v>12</v>
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>126.1</v>
+        <v>136.5</v>
       </c>
       <c r="F23" t="n">
         <v>13</v>
@@ -1167,7 +1167,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>175.5</v>
+        <v>133.9</v>
       </c>
       <c r="F24" t="n">
         <v>14</v>
@@ -1198,7 +1198,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>144.3</v>
+        <v>241.8</v>
       </c>
       <c r="F25" t="n">
         <v>15</v>
@@ -1229,7 +1229,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>187.2</v>
+        <v>176.8</v>
       </c>
       <c r="F26" t="n">
         <v>16</v>
@@ -1260,7 +1260,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>163.8</v>
+        <v>128.7</v>
       </c>
       <c r="F27" t="n">
         <v>17</v>
@@ -1291,7 +1291,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>195</v>
+        <v>165.1</v>
       </c>
       <c r="F28" t="n">
         <v>18</v>
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>153.4</v>
+        <v>157.3</v>
       </c>
       <c r="F29" t="n">
         <v>19</v>
@@ -1353,7 +1353,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>117</v>
+        <v>115.7</v>
       </c>
       <c r="F30" t="n">
         <v>20</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="F34" t="n">
         <v>8</v>
@@ -1508,7 +1508,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F35" t="n">
         <v>9</v>
@@ -1539,7 +1539,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="F36" t="n">
         <v>10</v>
@@ -1570,7 +1570,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="F37" t="n">
         <v>11</v>
@@ -1601,7 +1601,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="F38" t="n">
         <v>12</v>
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="F39" t="n">
         <v>13</v>
@@ -1663,7 +1663,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="F40" t="n">
         <v>14</v>
@@ -1694,7 +1694,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F41" t="n">
         <v>15</v>
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="F42" t="n">
         <v>16</v>
@@ -1756,7 +1756,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="F43" t="n">
         <v>17</v>
@@ -1787,7 +1787,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="F44" t="n">
         <v>18</v>
@@ -1818,7 +1818,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="F45" t="n">
         <v>19</v>
@@ -1849,7 +1849,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F46" t="n">
         <v>20</v>
@@ -1880,7 +1880,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F47" t="n">
         <v>21</v>
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F48" t="n">
         <v>22</v>
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F49" t="n">
         <v>23</v>
@@ -1973,7 +1973,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="F50" t="n">
         <v>8</v>
@@ -2004,7 +2004,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="F51" t="n">
         <v>9</v>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F52" t="n">
         <v>10</v>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F53" t="n">
         <v>11</v>
@@ -2097,7 +2097,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="F54" t="n">
         <v>12</v>
@@ -2128,7 +2128,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F55" t="n">
         <v>13</v>
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="F56" t="n">
         <v>14</v>
@@ -2190,7 +2190,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F57" t="n">
         <v>15</v>
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F58" t="n">
         <v>16</v>
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F59" t="n">
         <v>17</v>
@@ -2283,7 +2283,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="F60" t="n">
         <v>18</v>
@@ -2314,7 +2314,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="F61" t="n">
         <v>19</v>
@@ -2345,7 +2345,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="F62" t="n">
         <v>20</v>
@@ -2376,7 +2376,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="F63" t="n">
         <v>21</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F64" t="n">
         <v>22</v>
@@ -2438,7 +2438,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F65" t="n">
         <v>23</v>
@@ -2469,7 +2469,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F66" t="n">
         <v>8</v>
@@ -2500,7 +2500,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="F67" t="n">
         <v>9</v>
@@ -2531,7 +2531,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>185</v>
+        <v>134</v>
       </c>
       <c r="F68" t="n">
         <v>10</v>
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="F69" t="n">
         <v>11</v>
@@ -2593,7 +2593,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="F70" t="n">
         <v>12</v>
@@ -2624,7 +2624,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="F71" t="n">
         <v>13</v>
@@ -2655,7 +2655,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="F72" t="n">
         <v>14</v>
@@ -2686,7 +2686,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="F73" t="n">
         <v>15</v>
@@ -2717,7 +2717,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="F74" t="n">
         <v>16</v>
@@ -2748,7 +2748,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="F75" t="n">
         <v>17</v>
@@ -2779,7 +2779,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="F76" t="n">
         <v>18</v>
@@ -2810,7 +2810,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="F77" t="n">
         <v>19</v>
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F79" t="n">
         <v>21</v>
@@ -2903,7 +2903,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F80" t="n">
         <v>22</v>
@@ -2965,7 +2965,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="F82" t="n">
         <v>8</v>
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="F83" t="n">
         <v>9</v>
@@ -3027,7 +3027,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F84" t="n">
         <v>10</v>
@@ -3058,7 +3058,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="F85" t="n">
         <v>11</v>
@@ -3089,7 +3089,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F86" t="n">
         <v>12</v>
@@ -3151,7 +3151,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F88" t="n">
         <v>14</v>
@@ -3182,7 +3182,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F89" t="n">
         <v>15</v>
@@ -3244,7 +3244,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F91" t="n">
         <v>17</v>
@@ -3275,7 +3275,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F92" t="n">
         <v>18</v>
@@ -3306,7 +3306,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F93" t="n">
         <v>19</v>
@@ -3337,7 +3337,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F94" t="n">
         <v>20</v>
@@ -3368,7 +3368,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F95" t="n">
         <v>21</v>
@@ -3399,7 +3399,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F96" t="n">
         <v>22</v>
@@ -3430,7 +3430,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F97" t="n">
         <v>23</v>
@@ -3461,7 +3461,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F98" t="n">
         <v>8</v>
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F99" t="n">
         <v>9</v>
@@ -3523,7 +3523,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F100" t="n">
         <v>10</v>
@@ -3554,7 +3554,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F101" t="n">
         <v>11</v>
@@ -3585,7 +3585,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F102" t="n">
         <v>12</v>
@@ -3616,7 +3616,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F103" t="n">
         <v>13</v>
@@ -3647,7 +3647,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F104" t="n">
         <v>14</v>
@@ -3678,7 +3678,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F105" t="n">
         <v>15</v>
@@ -3709,7 +3709,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F106" t="n">
         <v>16</v>
@@ -3740,7 +3740,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F107" t="n">
         <v>17</v>
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F108" t="n">
         <v>18</v>
@@ -3802,7 +3802,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F109" t="n">
         <v>19</v>
@@ -3833,7 +3833,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F110" t="n">
         <v>20</v>
@@ -3864,7 +3864,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F111" t="n">
         <v>21</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F112" t="n">
         <v>22</v>
@@ -3926,7 +3926,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F113" t="n">
         <v>23</v>
@@ -3957,7 +3957,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F114" t="n">
         <v>0</v>
@@ -3988,7 +3988,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F115" t="n">
         <v>1</v>
@@ -4019,7 +4019,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F116" t="n">
         <v>2</v>
@@ -4050,7 +4050,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F117" t="n">
         <v>3</v>
@@ -4081,7 +4081,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F118" t="n">
         <v>4</v>
@@ -4112,7 +4112,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F119" t="n">
         <v>5</v>
@@ -4174,7 +4174,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="F121" t="n">
         <v>7</v>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F124" t="n">
         <v>10</v>
@@ -4360,7 +4360,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F127" t="n">
         <v>13</v>
@@ -4422,7 +4422,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129" t="n">
         <v>15</v>
@@ -4484,7 +4484,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F131" t="n">
         <v>17</v>
@@ -4515,7 +4515,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132" t="n">
         <v>18</v>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F133" t="n">
         <v>19</v>
@@ -4763,7 +4763,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F140" t="n">
         <v>10</v>
@@ -4794,7 +4794,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F141" t="n">
         <v>11</v>
@@ -4825,7 +4825,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F142" t="n">
         <v>12</v>
@@ -4918,7 +4918,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F145" t="n">
         <v>15</v>
@@ -4949,7 +4949,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F146" t="n">
         <v>16</v>
@@ -5011,7 +5011,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F148" t="n">
         <v>18</v>
@@ -5228,7 +5228,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F155" t="n">
         <v>9</v>
@@ -5259,7 +5259,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F156" t="n">
         <v>10</v>
@@ -5290,7 +5290,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F157" t="n">
         <v>11</v>
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F158" t="n">
         <v>12</v>
@@ -5352,7 +5352,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F159" t="n">
         <v>13</v>
@@ -5383,7 +5383,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F160" t="n">
         <v>14</v>
@@ -5414,7 +5414,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F161" t="n">
         <v>15</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F162" t="n">
         <v>16</v>
@@ -5507,7 +5507,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F164" t="n">
         <v>18</v>
@@ -5538,7 +5538,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F165" t="n">
         <v>19</v>
@@ -5569,7 +5569,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F166" t="n">
         <v>20</v>
@@ -5693,7 +5693,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F170" t="n">
         <v>8</v>
@@ -5755,7 +5755,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F172" t="n">
         <v>10</v>
@@ -5817,7 +5817,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F174" t="n">
         <v>12</v>
@@ -5848,7 +5848,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F175" t="n">
         <v>13</v>
@@ -5879,7 +5879,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F176" t="n">
         <v>14</v>
@@ -5910,7 +5910,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F177" t="n">
         <v>15</v>
@@ -5972,7 +5972,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F179" t="n">
         <v>17</v>
@@ -6003,7 +6003,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F180" t="n">
         <v>18</v>
@@ -6034,7 +6034,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F181" t="n">
         <v>19</v>
@@ -6065,7 +6065,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F182" t="n">
         <v>20</v>
@@ -6189,7 +6189,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F186" t="n">
         <v>8</v>
@@ -6220,7 +6220,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F187" t="n">
         <v>10</v>
@@ -6251,7 +6251,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F188" t="n">
         <v>8</v>
@@ -6282,7 +6282,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F189" t="n">
         <v>8</v>
@@ -6313,7 +6313,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="F190" t="n">
         <v>9</v>
@@ -6344,7 +6344,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="F191" t="n">
         <v>10</v>
@@ -6375,7 +6375,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F192" t="n">
         <v>11</v>
@@ -6406,7 +6406,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="F193" t="n">
         <v>12</v>
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F194" t="n">
         <v>13</v>
@@ -6468,7 +6468,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="F195" t="n">
         <v>14</v>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="F196" t="n">
         <v>15</v>
@@ -6530,7 +6530,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="F197" t="n">
         <v>16</v>
@@ -6561,7 +6561,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="F198" t="n">
         <v>17</v>
@@ -6592,7 +6592,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="F199" t="n">
         <v>18</v>
@@ -6623,7 +6623,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="F200" t="n">
         <v>19</v>
@@ -6840,7 +6840,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F207" t="n">
         <v>10</v>
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F208" t="n">
         <v>11</v>
@@ -6902,7 +6902,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F209" t="n">
         <v>12</v>
@@ -6933,7 +6933,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F210" t="n">
         <v>13</v>
@@ -6964,7 +6964,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F211" t="n">
         <v>14</v>
@@ -6995,7 +6995,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F212" t="n">
         <v>15</v>
@@ -7026,7 +7026,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F213" t="n">
         <v>16</v>
@@ -7057,7 +7057,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F214" t="n">
         <v>17</v>
@@ -7088,7 +7088,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F215" t="n">
         <v>18</v>
@@ -7119,7 +7119,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F216" t="n">
         <v>19</v>
@@ -7305,7 +7305,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F222" t="n">
         <v>9</v>
@@ -7336,7 +7336,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F223" t="n">
         <v>10</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F224" t="n">
         <v>11</v>
@@ -7398,7 +7398,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F225" t="n">
         <v>12</v>
@@ -7429,7 +7429,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F226" t="n">
         <v>13</v>
@@ -7460,7 +7460,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F227" t="n">
         <v>14</v>
@@ -7491,7 +7491,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F228" t="n">
         <v>15</v>
@@ -7522,7 +7522,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F229" t="n">
         <v>16</v>
@@ -7553,7 +7553,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F230" t="n">
         <v>17</v>
@@ -7584,7 +7584,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F231" t="n">
         <v>18</v>
@@ -7615,7 +7615,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F232" t="n">
         <v>19</v>
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F233" t="n">
         <v>20</v>
@@ -7956,7 +7956,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F243" t="n">
         <v>14</v>
@@ -7987,7 +7987,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F244" t="n">
         <v>15</v>
@@ -8018,7 +8018,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F245" t="n">
         <v>16</v>
@@ -8049,7 +8049,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F246" t="n">
         <v>17</v>
@@ -8080,7 +8080,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F247" t="n">
         <v>18</v>
@@ -8111,7 +8111,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F248" t="n">
         <v>19</v>
@@ -8266,7 +8266,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F253" t="n">
         <v>8</v>
@@ -8297,7 +8297,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F254" t="n">
         <v>9</v>
@@ -8328,7 +8328,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F255" t="n">
         <v>10</v>
@@ -8359,7 +8359,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F256" t="n">
         <v>11</v>
@@ -8390,7 +8390,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F257" t="n">
         <v>12</v>
@@ -8452,7 +8452,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F259" t="n">
         <v>14</v>
@@ -8483,7 +8483,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F260" t="n">
         <v>15</v>
@@ -8514,7 +8514,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F261" t="n">
         <v>16</v>
@@ -8545,7 +8545,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F262" t="n">
         <v>17</v>
@@ -8576,7 +8576,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F263" t="n">
         <v>18</v>
@@ -8607,7 +8607,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F264" t="n">
         <v>19</v>
@@ -8638,7 +8638,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F265" t="n">
         <v>20</v>
@@ -8669,7 +8669,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F266" t="n">
         <v>21</v>
@@ -8700,7 +8700,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F267" t="n">
         <v>22</v>

--- a/service/dayforecastonfcst.xlsx
+++ b/service/dayforecastonfcst.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>24/03/2023</t>
+          <t>25/03/2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>157.3</v>
+        <v>96</v>
       </c>
       <c r="F3" t="n">
         <v>9</v>
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>174.2</v>
+        <v>134</v>
       </c>
       <c r="F4" t="n">
         <v>10</v>
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>175.5</v>
+        <v>154</v>
       </c>
       <c r="F5" t="n">
         <v>11</v>
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>153.4</v>
+        <v>170</v>
       </c>
       <c r="F6" t="n">
         <v>12</v>
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>128.7</v>
+        <v>124</v>
       </c>
       <c r="F7" t="n">
         <v>13</v>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>118.3</v>
+        <v>96</v>
       </c>
       <c r="F8" t="n">
         <v>14</v>
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>139.1</v>
+        <v>98</v>
       </c>
       <c r="F9" t="n">
         <v>15</v>
@@ -733,7 +733,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>133.9</v>
+        <v>88</v>
       </c>
       <c r="F10" t="n">
         <v>16</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>128.7</v>
+        <v>100</v>
       </c>
       <c r="F11" t="n">
         <v>17</v>
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>126.1</v>
+        <v>90</v>
       </c>
       <c r="F12" t="n">
         <v>18</v>
@@ -826,7 +826,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>76.7</v>
+        <v>48</v>
       </c>
       <c r="F13" t="n">
         <v>19</v>
@@ -857,7 +857,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>32.5</v>
+        <v>24</v>
       </c>
       <c r="F14" t="n">
         <v>20</v>
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="F19" t="n">
         <v>9</v>
@@ -1043,7 +1043,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>140.4</v>
+        <v>136</v>
       </c>
       <c r="F20" t="n">
         <v>10</v>
@@ -1074,7 +1074,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>158.6</v>
+        <v>158</v>
       </c>
       <c r="F21" t="n">
         <v>11</v>
@@ -1105,7 +1105,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>240.5</v>
+        <v>166</v>
       </c>
       <c r="F22" t="n">
         <v>12</v>
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>136.5</v>
+        <v>106</v>
       </c>
       <c r="F23" t="n">
         <v>13</v>
@@ -1167,7 +1167,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>133.9</v>
+        <v>164</v>
       </c>
       <c r="F24" t="n">
         <v>14</v>
@@ -1198,7 +1198,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>241.8</v>
+        <v>106</v>
       </c>
       <c r="F25" t="n">
         <v>15</v>
@@ -1229,7 +1229,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>176.8</v>
+        <v>104</v>
       </c>
       <c r="F26" t="n">
         <v>16</v>
@@ -1260,7 +1260,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>128.7</v>
+        <v>98</v>
       </c>
       <c r="F27" t="n">
         <v>17</v>
@@ -1291,7 +1291,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>165.1</v>
+        <v>96</v>
       </c>
       <c r="F28" t="n">
         <v>18</v>
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>157.3</v>
+        <v>62</v>
       </c>
       <c r="F29" t="n">
         <v>19</v>
@@ -1353,7 +1353,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>115.7</v>
+        <v>38</v>
       </c>
       <c r="F30" t="n">
         <v>20</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F34" t="n">
         <v>8</v>
@@ -1508,7 +1508,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="F35" t="n">
         <v>9</v>
@@ -1539,7 +1539,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F36" t="n">
         <v>10</v>
@@ -1570,7 +1570,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="F37" t="n">
         <v>11</v>
@@ -1601,7 +1601,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F38" t="n">
         <v>12</v>
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F39" t="n">
         <v>13</v>
@@ -1663,7 +1663,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="F40" t="n">
         <v>14</v>
@@ -1694,7 +1694,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="F41" t="n">
         <v>15</v>
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F42" t="n">
         <v>16</v>
@@ -1756,7 +1756,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="F43" t="n">
         <v>17</v>
@@ -1787,7 +1787,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="F44" t="n">
         <v>18</v>
@@ -1818,7 +1818,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="F45" t="n">
         <v>19</v>
@@ -1849,7 +1849,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="F46" t="n">
         <v>20</v>
@@ -1880,7 +1880,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="F47" t="n">
         <v>21</v>
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F48" t="n">
         <v>22</v>
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F49" t="n">
         <v>23</v>
@@ -1973,7 +1973,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F50" t="n">
         <v>8</v>
@@ -2004,7 +2004,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="F51" t="n">
         <v>9</v>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="F52" t="n">
         <v>10</v>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="F53" t="n">
         <v>11</v>
@@ -2097,7 +2097,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F54" t="n">
         <v>12</v>
@@ -2128,7 +2128,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="F55" t="n">
         <v>13</v>
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="F56" t="n">
         <v>14</v>
@@ -2190,7 +2190,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="F57" t="n">
         <v>15</v>
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="F58" t="n">
         <v>16</v>
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="F59" t="n">
         <v>17</v>
@@ -2283,7 +2283,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F60" t="n">
         <v>18</v>
@@ -2314,7 +2314,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F61" t="n">
         <v>19</v>
@@ -2345,7 +2345,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="F62" t="n">
         <v>20</v>
@@ -2376,7 +2376,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F63" t="n">
         <v>21</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F64" t="n">
         <v>22</v>
@@ -2438,7 +2438,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F65" t="n">
         <v>23</v>
@@ -2469,7 +2469,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="F66" t="n">
         <v>8</v>
@@ -2500,7 +2500,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>142</v>
+        <v>94</v>
       </c>
       <c r="F67" t="n">
         <v>9</v>
@@ -2531,7 +2531,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="F68" t="n">
         <v>10</v>
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="F69" t="n">
         <v>11</v>
@@ -2593,7 +2593,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="F70" t="n">
         <v>12</v>
@@ -2624,7 +2624,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="F71" t="n">
         <v>13</v>
@@ -2655,7 +2655,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="F72" t="n">
         <v>14</v>
@@ -2686,7 +2686,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="F73" t="n">
         <v>15</v>
@@ -2717,7 +2717,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="F74" t="n">
         <v>16</v>
@@ -2748,7 +2748,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="F75" t="n">
         <v>17</v>
@@ -2779,7 +2779,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>124</v>
+        <v>67</v>
       </c>
       <c r="F76" t="n">
         <v>18</v>
@@ -2810,7 +2810,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="F77" t="n">
         <v>19</v>
@@ -2841,7 +2841,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="F78" t="n">
         <v>20</v>
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="F79" t="n">
         <v>21</v>
@@ -2903,7 +2903,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F80" t="n">
         <v>22</v>
@@ -2965,7 +2965,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="F82" t="n">
         <v>8</v>
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F83" t="n">
         <v>9</v>
@@ -3027,7 +3027,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F84" t="n">
         <v>10</v>
@@ -3058,7 +3058,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="F85" t="n">
         <v>11</v>
@@ -3089,7 +3089,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F86" t="n">
         <v>12</v>
@@ -3120,7 +3120,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F87" t="n">
         <v>13</v>
@@ -3151,7 +3151,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F88" t="n">
         <v>14</v>
@@ -3182,7 +3182,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="F89" t="n">
         <v>15</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F90" t="n">
         <v>16</v>
@@ -3244,7 +3244,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F91" t="n">
         <v>17</v>
@@ -3275,7 +3275,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F92" t="n">
         <v>18</v>
@@ -3306,7 +3306,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F93" t="n">
         <v>19</v>
@@ -3337,7 +3337,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F94" t="n">
         <v>20</v>
@@ -3368,7 +3368,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F95" t="n">
         <v>21</v>
@@ -3399,7 +3399,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="F96" t="n">
         <v>22</v>
@@ -3430,7 +3430,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F97" t="n">
         <v>23</v>
@@ -3461,7 +3461,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F98" t="n">
         <v>8</v>
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="F99" t="n">
         <v>9</v>
@@ -3523,7 +3523,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="F100" t="n">
         <v>10</v>
@@ -3554,7 +3554,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F101" t="n">
         <v>11</v>
@@ -3585,7 +3585,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F102" t="n">
         <v>12</v>
@@ -3616,7 +3616,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F103" t="n">
         <v>13</v>
@@ -3647,7 +3647,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F104" t="n">
         <v>14</v>
@@ -3678,7 +3678,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="F105" t="n">
         <v>15</v>
@@ -3709,7 +3709,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F106" t="n">
         <v>16</v>
@@ -3740,7 +3740,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="F107" t="n">
         <v>17</v>
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="F108" t="n">
         <v>18</v>
@@ -3802,7 +3802,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F109" t="n">
         <v>19</v>
@@ -3833,7 +3833,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F110" t="n">
         <v>20</v>
@@ -3864,7 +3864,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F111" t="n">
         <v>21</v>
@@ -3926,7 +3926,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F113" t="n">
         <v>23</v>
@@ -3988,7 +3988,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F115" t="n">
         <v>1</v>
@@ -4019,7 +4019,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F116" t="n">
         <v>2</v>
@@ -4081,7 +4081,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
         <v>4</v>
@@ -4112,7 +4112,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F119" t="n">
         <v>5</v>
@@ -4174,7 +4174,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="F121" t="n">
         <v>7</v>
@@ -4236,7 +4236,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F123" t="n">
         <v>9</v>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F124" t="n">
         <v>10</v>
@@ -4298,7 +4298,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F125" t="n">
         <v>11</v>
@@ -4329,7 +4329,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F126" t="n">
         <v>12</v>
@@ -4360,7 +4360,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
         <v>13</v>
@@ -4484,7 +4484,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F131" t="n">
         <v>17</v>
@@ -4763,7 +4763,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F140" t="n">
         <v>10</v>
@@ -4825,7 +4825,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F142" t="n">
         <v>12</v>
@@ -4856,7 +4856,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F143" t="n">
         <v>13</v>
@@ -4918,7 +4918,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F145" t="n">
         <v>15</v>
@@ -4949,7 +4949,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F146" t="n">
         <v>16</v>
@@ -4980,7 +4980,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F147" t="n">
         <v>17</v>
@@ -5011,7 +5011,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F148" t="n">
         <v>18</v>
@@ -5042,7 +5042,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F149" t="n">
         <v>19</v>
@@ -5228,7 +5228,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="F155" t="n">
         <v>9</v>
@@ -5259,7 +5259,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F156" t="n">
         <v>10</v>
@@ -5290,7 +5290,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F157" t="n">
         <v>11</v>
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F158" t="n">
         <v>12</v>
@@ -5352,7 +5352,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F159" t="n">
         <v>13</v>
@@ -5383,7 +5383,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F160" t="n">
         <v>14</v>
@@ -5414,7 +5414,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F161" t="n">
         <v>15</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F162" t="n">
         <v>16</v>
@@ -5476,7 +5476,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="F163" t="n">
         <v>17</v>
@@ -5507,7 +5507,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F164" t="n">
         <v>18</v>
@@ -5538,7 +5538,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F165" t="n">
         <v>19</v>
@@ -5569,7 +5569,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F166" t="n">
         <v>20</v>
@@ -5693,7 +5693,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F170" t="n">
         <v>8</v>
@@ -5724,7 +5724,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F171" t="n">
         <v>9</v>
@@ -5755,7 +5755,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F172" t="n">
         <v>10</v>
@@ -5786,7 +5786,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F173" t="n">
         <v>11</v>
@@ -5817,7 +5817,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F174" t="n">
         <v>12</v>
@@ -5879,7 +5879,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F176" t="n">
         <v>14</v>
@@ -5910,7 +5910,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F177" t="n">
         <v>15</v>
@@ -5941,7 +5941,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F178" t="n">
         <v>16</v>
@@ -5972,7 +5972,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F179" t="n">
         <v>17</v>
@@ -6003,7 +6003,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F180" t="n">
         <v>18</v>
@@ -6034,7 +6034,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F181" t="n">
         <v>19</v>
@@ -6065,7 +6065,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F182" t="n">
         <v>20</v>
@@ -6189,7 +6189,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F186" t="n">
         <v>8</v>
@@ -6220,7 +6220,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="F187" t="n">
         <v>10</v>
@@ -6251,7 +6251,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F188" t="n">
         <v>8</v>
@@ -6282,7 +6282,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="F189" t="n">
         <v>8</v>
@@ -6313,7 +6313,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>112</v>
+        <v>48</v>
       </c>
       <c r="F190" t="n">
         <v>9</v>
@@ -6344,7 +6344,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="F191" t="n">
         <v>10</v>
@@ -6375,7 +6375,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="F192" t="n">
         <v>11</v>
@@ -6406,7 +6406,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="F193" t="n">
         <v>12</v>
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="F194" t="n">
         <v>13</v>
@@ -6468,7 +6468,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="F195" t="n">
         <v>14</v>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="F196" t="n">
         <v>15</v>
@@ -6530,7 +6530,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="F197" t="n">
         <v>16</v>
@@ -6561,7 +6561,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="F198" t="n">
         <v>17</v>
@@ -6592,7 +6592,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="F199" t="n">
         <v>18</v>
@@ -6623,7 +6623,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="F200" t="n">
         <v>19</v>
@@ -6778,7 +6778,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F205" t="n">
         <v>8</v>
@@ -6809,7 +6809,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F206" t="n">
         <v>9</v>
@@ -6840,7 +6840,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F207" t="n">
         <v>10</v>
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F208" t="n">
         <v>11</v>
@@ -6902,7 +6902,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F209" t="n">
         <v>12</v>
@@ -6933,7 +6933,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F210" t="n">
         <v>13</v>
@@ -6964,7 +6964,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F211" t="n">
         <v>14</v>
@@ -6995,7 +6995,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F212" t="n">
         <v>15</v>
@@ -7057,7 +7057,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F214" t="n">
         <v>17</v>
@@ -7088,7 +7088,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F215" t="n">
         <v>18</v>
@@ -7119,7 +7119,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F216" t="n">
         <v>19</v>
@@ -7305,7 +7305,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F222" t="n">
         <v>9</v>
@@ -7336,7 +7336,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F223" t="n">
         <v>10</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F224" t="n">
         <v>11</v>
@@ -7398,7 +7398,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F225" t="n">
         <v>12</v>
@@ -7429,7 +7429,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F226" t="n">
         <v>13</v>
@@ -7460,7 +7460,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="F227" t="n">
         <v>14</v>
@@ -7491,7 +7491,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F228" t="n">
         <v>15</v>
@@ -7522,7 +7522,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="F229" t="n">
         <v>16</v>
@@ -7553,7 +7553,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F230" t="n">
         <v>17</v>
@@ -7584,7 +7584,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F231" t="n">
         <v>18</v>
@@ -7615,7 +7615,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F232" t="n">
         <v>19</v>
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F233" t="n">
         <v>20</v>
@@ -7801,7 +7801,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F238" t="n">
         <v>9</v>
@@ -7832,7 +7832,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F239" t="n">
         <v>10</v>
@@ -7863,7 +7863,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F240" t="n">
         <v>11</v>
@@ -7894,7 +7894,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F241" t="n">
         <v>12</v>
@@ -7956,7 +7956,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F243" t="n">
         <v>14</v>
@@ -7987,7 +7987,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F244" t="n">
         <v>15</v>
@@ -8018,7 +8018,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F245" t="n">
         <v>16</v>
@@ -8049,7 +8049,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F246" t="n">
         <v>17</v>
@@ -8142,7 +8142,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F249" t="n">
         <v>20</v>
@@ -8266,7 +8266,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F253" t="n">
         <v>8</v>
@@ -8297,7 +8297,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F254" t="n">
         <v>9</v>
@@ -8328,7 +8328,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F255" t="n">
         <v>10</v>
@@ -8359,7 +8359,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F256" t="n">
         <v>11</v>
@@ -8390,7 +8390,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F257" t="n">
         <v>12</v>
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F258" t="n">
         <v>13</v>
@@ -8452,7 +8452,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F259" t="n">
         <v>14</v>
@@ -8483,7 +8483,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F260" t="n">
         <v>15</v>
@@ -8514,7 +8514,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F261" t="n">
         <v>16</v>
@@ -8545,7 +8545,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F262" t="n">
         <v>17</v>
@@ -8576,7 +8576,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F263" t="n">
         <v>18</v>
@@ -8607,7 +8607,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F264" t="n">
         <v>19</v>
@@ -8638,7 +8638,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F265" t="n">
         <v>20</v>
@@ -8669,7 +8669,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F266" t="n">
         <v>21</v>
@@ -8700,7 +8700,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F267" t="n">
         <v>22</v>

--- a/service/dayforecastonfcst.xlsx
+++ b/service/dayforecastonfcst.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G268"/>
+  <dimension ref="A1:G289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>25/03/2023</t>
+          <t>07/04/2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -488,7 +488,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -516,10 +516,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="F3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -547,10 +547,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="F4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -578,10 +578,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="F5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="F6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -643,7 +643,7 @@
         <v>124</v>
       </c>
       <c r="F7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -671,10 +671,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="F8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -702,10 +702,10 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="F9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -733,10 +733,10 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>88</v>
+        <v>137</v>
       </c>
       <c r="F10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="F11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -795,10 +795,10 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="F12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -826,10 +826,10 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="F13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -857,10 +857,10 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -891,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1012,10 +1012,10 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="F19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1043,10 +1043,10 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="F20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1074,10 +1074,10 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="F21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1105,10 +1105,10 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1136,10 +1136,10 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="F23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1167,10 +1167,10 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="F24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="F25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1229,10 +1229,10 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>104</v>
+        <v>156</v>
       </c>
       <c r="F26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1260,10 +1260,10 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>98</v>
+        <v>156</v>
       </c>
       <c r="F27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1291,10 +1291,10 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="F28" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1322,10 +1322,10 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>62</v>
+        <v>156</v>
       </c>
       <c r="F29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1353,10 +1353,10 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="F30" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F34" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1508,10 +1508,10 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="F35" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1539,10 +1539,10 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F36" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1570,10 +1570,10 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F37" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1601,10 +1601,10 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="F38" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1632,10 +1632,10 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="F39" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1663,10 +1663,10 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F40" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1694,10 +1694,10 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F41" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1725,10 +1725,10 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F42" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1756,10 +1756,10 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="F43" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="F44" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1818,10 +1818,10 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="F45" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1849,10 +1849,10 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="F46" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -1880,10 +1880,10 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="F47" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -1911,10 +1911,10 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="F48" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -1942,10 +1942,10 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F49" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         <v>25</v>
       </c>
       <c r="F50" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2004,10 +2004,10 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F51" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2035,10 +2035,10 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F52" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2066,10 +2066,10 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F53" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2097,10 +2097,10 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F54" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>36</v>
       </c>
       <c r="F55" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2159,10 +2159,10 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F56" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -2190,10 +2190,10 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F57" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -2221,10 +2221,10 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F58" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -2252,10 +2252,10 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F59" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -2283,10 +2283,10 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="F60" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -2314,10 +2314,10 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="F61" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -2345,10 +2345,10 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="F62" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -2376,10 +2376,10 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="F63" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -2407,10 +2407,10 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F64" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -2438,10 +2438,10 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F65" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -2469,10 +2469,10 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="F66" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -2500,10 +2500,10 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="F67" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -2531,10 +2531,10 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="F68" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -2562,10 +2562,10 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="F69" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -2593,10 +2593,10 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="F70" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -2624,10 +2624,10 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="F71" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -2655,10 +2655,10 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="F72" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -2686,10 +2686,10 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="F73" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -2717,10 +2717,10 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="F74" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -2748,10 +2748,10 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="F75" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -2779,10 +2779,10 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="F76" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -2810,10 +2810,10 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="F77" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -2841,10 +2841,10 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="F78" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -2872,10 +2872,10 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="F79" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -2903,10 +2903,10 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F80" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -2934,10 +2934,10 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F81" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -2965,10 +2965,10 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F82" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -2996,10 +2996,10 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F83" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -3027,10 +3027,10 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="F84" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -3058,10 +3058,10 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="F85" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -3089,10 +3089,10 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F86" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -3120,10 +3120,10 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F87" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -3151,10 +3151,10 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F88" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -3182,10 +3182,10 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="F89" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -3213,10 +3213,10 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F90" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -3244,10 +3244,10 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F91" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -3275,10 +3275,10 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F92" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -3306,10 +3306,10 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F93" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -3337,10 +3337,10 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="F94" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -3368,10 +3368,10 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -3399,10 +3399,10 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F96" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -3430,10 +3430,10 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F97" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -3461,10 +3461,10 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F98" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -3492,10 +3492,10 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="F99" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -3523,10 +3523,10 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="F100" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -3554,10 +3554,10 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F101" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -3585,10 +3585,10 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F102" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -3616,10 +3616,10 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F103" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -3647,10 +3647,10 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="F104" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -3678,10 +3678,10 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F105" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -3709,10 +3709,10 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F106" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -3740,10 +3740,10 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F107" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -3771,10 +3771,10 @@
         </is>
       </c>
       <c r="E108" t="n">
+        <v>32</v>
+      </c>
+      <c r="F108" t="n">
         <v>19</v>
-      </c>
-      <c r="F108" t="n">
-        <v>18</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -3802,10 +3802,10 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F109" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -3833,10 +3833,10 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F110" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -3864,10 +3864,10 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F111" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F112" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -3926,10 +3926,10 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F113" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -3943,7 +3943,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-VIP-RES</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -3953,18 +3953,18 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>00.00-01.00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>VIP</t>
         </is>
       </c>
     </row>
@@ -3974,7 +3974,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-VIP-RES</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -3984,18 +3984,18 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>01.00-02.00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>VIP</t>
         </is>
       </c>
     </row>
@@ -4005,7 +4005,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-VIP-RES</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4015,18 +4015,18 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>02.00-03.00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E116" t="n">
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>VIP</t>
         </is>
       </c>
     </row>
@@ -4036,7 +4036,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-VIP-RES</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4046,18 +4046,18 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>03.00-04.00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>VIP</t>
         </is>
       </c>
     </row>
@@ -4067,7 +4067,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-VIP-RES</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4077,18 +4077,18 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>04.00-05.00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>VIP</t>
         </is>
       </c>
     </row>
@@ -4098,7 +4098,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-VIP-RES</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4108,18 +4108,18 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>05.00-06.00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>VIP</t>
         </is>
       </c>
     </row>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-VIP-RES</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4139,18 +4139,18 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>06.00-07.00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E120" t="n">
+        <v>0</v>
+      </c>
+      <c r="F120" t="n">
         <v>15</v>
       </c>
-      <c r="F120" t="n">
-        <v>6</v>
-      </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>VIP</t>
         </is>
       </c>
     </row>
@@ -4160,7 +4160,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-VIP-RES</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4170,18 +4170,18 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>07.00-08.00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>VIP</t>
         </is>
       </c>
     </row>
@@ -4201,14 +4201,14 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>16:00-17:00</t>
         </is>
       </c>
       <c r="E122" t="n">
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -4232,14 +4232,14 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -4263,14 +4263,14 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>18:00-19:00</t>
         </is>
       </c>
       <c r="E124" t="n">
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -4294,14 +4294,14 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>19:00-20:00</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -4325,14 +4325,14 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>20:00-21:00</t>
         </is>
       </c>
       <c r="E126" t="n">
         <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -4356,14 +4356,14 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>21:00-22:00</t>
         </is>
       </c>
       <c r="E127" t="n">
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -4387,14 +4387,14 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>22:00-23:00</t>
         </is>
       </c>
       <c r="E128" t="n">
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -4418,14 +4418,14 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>23:00-24:00</t>
         </is>
       </c>
       <c r="E129" t="n">
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -4439,28 +4439,28 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>COV-VIP-RES</t>
+          <t>COV-INFOLINE-PRE-RES</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>PRE</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>16:00-17:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E130" t="n">
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -4470,28 +4470,28 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>COV-VIP-RES</t>
+          <t>COV-INFOLINE-PRE-RES</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>PRE</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F131" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -4501,28 +4501,28 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>COV-VIP-RES</t>
+          <t>COV-INFOLINE-PRE-RES</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>PRE</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>18:00-19:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F132" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -4532,28 +4532,28 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>COV-VIP-RES</t>
+          <t>COV-INFOLINE-PRE-RES</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>PRE</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>19:00-20:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F133" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -4563,28 +4563,28 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>COV-VIP-RES</t>
+          <t>COV-INFOLINE-PRE-RES</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>PRE</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>20:00-21:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F134" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -4594,28 +4594,28 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>COV-VIP-RES</t>
+          <t>COV-INFOLINE-PRE-RES</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>PRE</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>21:00-22:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -4625,28 +4625,28 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>COV-VIP-RES</t>
+          <t>COV-INFOLINE-PRE-RES</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>PRE</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>22:00-23:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F136" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -4656,28 +4656,28 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>COV-VIP-RES</t>
+          <t>COV-INFOLINE-PRE-RES</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>PRE</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>23:00-24:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F137" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>MSK</t>
         </is>
       </c>
     </row>
@@ -4697,14 +4697,14 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>16:00-17:00</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F138" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -4728,14 +4728,14 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F139" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -4759,14 +4759,14 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>18:00-19:00</t>
         </is>
       </c>
       <c r="E140" t="n">
         <v>2</v>
       </c>
       <c r="F140" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -4790,14 +4790,14 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>19:00-20:00</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -4821,14 +4821,14 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>20:00-21:00</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -4852,14 +4852,14 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>21:00-22:00</t>
         </is>
       </c>
       <c r="E143" t="n">
         <v>0</v>
       </c>
       <c r="F143" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -4883,14 +4883,14 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>22:00-23:00</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -4914,14 +4914,14 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>23:00-24:00</t>
         </is>
       </c>
       <c r="E145" t="n">
         <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -4935,7 +4935,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>COV-INFOLINE-PRE-RES</t>
+          <t>COV-INFOPROVISIONING-RES</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -4945,18 +4945,18 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>16:00-17:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E146" t="n">
         <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>IPR</t>
         </is>
       </c>
     </row>
@@ -4966,7 +4966,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>COV-INFOLINE-PRE-RES</t>
+          <t>COV-INFOPROVISIONING-RES</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -4976,18 +4976,18 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F147" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>IPR</t>
         </is>
       </c>
     </row>
@@ -4997,7 +4997,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>COV-INFOLINE-PRE-RES</t>
+          <t>COV-INFOPROVISIONING-RES</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -5007,18 +5007,18 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>18:00-19:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F148" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>IPR</t>
         </is>
       </c>
     </row>
@@ -5028,7 +5028,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>COV-INFOLINE-PRE-RES</t>
+          <t>COV-INFOPROVISIONING-RES</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -5038,18 +5038,18 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>19:00-20:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F149" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>IPR</t>
         </is>
       </c>
     </row>
@@ -5059,7 +5059,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>COV-INFOLINE-PRE-RES</t>
+          <t>COV-INFOPROVISIONING-RES</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -5069,18 +5069,18 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>20:00-21:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F150" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>IPR</t>
         </is>
       </c>
     </row>
@@ -5090,7 +5090,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>COV-INFOLINE-PRE-RES</t>
+          <t>COV-INFOPROVISIONING-RES</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -5100,18 +5100,18 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>21:00-22:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F151" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>IPR</t>
         </is>
       </c>
     </row>
@@ -5121,7 +5121,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>COV-INFOLINE-PRE-RES</t>
+          <t>COV-INFOPROVISIONING-RES</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -5131,18 +5131,18 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>22:00-23:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F152" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>IPR</t>
         </is>
       </c>
     </row>
@@ -5152,7 +5152,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>COV-INFOLINE-PRE-RES</t>
+          <t>COV-INFOPROVISIONING-RES</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -5162,18 +5162,18 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>23:00-24:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F153" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>IPR</t>
         </is>
       </c>
     </row>
@@ -5193,14 +5193,14 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>16:00-17:00</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F154" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -5224,14 +5224,14 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F155" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -5255,14 +5255,14 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>18:00-19:00</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F156" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -5286,14 +5286,14 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>19:00-20:00</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F157" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -5317,14 +5317,14 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>20:00-21:00</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F158" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -5348,14 +5348,14 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>21:00-22:00</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -5379,14 +5379,14 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>22:00-23:00</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -5410,14 +5410,14 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>23:00-24:00</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -5431,7 +5431,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-RES</t>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -5441,14 +5441,14 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>16:00-17:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F162" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-RES</t>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -5472,14 +5472,14 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F163" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -5493,7 +5493,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-RES</t>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -5503,14 +5503,14 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>18:00-19:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F164" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-RES</t>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -5534,14 +5534,14 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>19:00-20:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F165" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -5555,7 +5555,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-RES</t>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -5565,14 +5565,14 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>20:00-21:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="F166" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-RES</t>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -5596,14 +5596,14 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>21:00-22:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F167" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -5617,7 +5617,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-RES</t>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -5627,14 +5627,14 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>22:00-23:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F168" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-RES</t>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -5658,14 +5658,14 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>23:00-24:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F169" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -5689,14 +5689,14 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>16:00-17:00</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="F170" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -5720,14 +5720,14 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="E171" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F171" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -5751,14 +5751,14 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>18:00-19:00</t>
         </is>
       </c>
       <c r="E172" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -5782,14 +5782,14 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>19:00-20:00</t>
         </is>
       </c>
       <c r="E173" t="n">
         <v>3</v>
       </c>
       <c r="F173" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -5813,14 +5813,14 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>20:00-21:00</t>
         </is>
       </c>
       <c r="E174" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F174" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -5844,14 +5844,14 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>21:00-22:00</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -5875,14 +5875,14 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>22:00-23:00</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -5906,14 +5906,14 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>23:00-24:00</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -5927,7 +5927,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-CMN-RES</t>
+          <t>COV-MIGRAZIONE-35</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -5937,18 +5937,18 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>16:00-17:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E178" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="F178" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>MIG</t>
         </is>
       </c>
     </row>
@@ -5958,7 +5958,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-CMN-RES</t>
+          <t>COV-MIGRAZIONE-35</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -5968,18 +5968,18 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E179" t="n">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="F179" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>MIG</t>
         </is>
       </c>
     </row>
@@ -5989,7 +5989,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-CMN-RES</t>
+          <t>COV-MIGRAZIONE-35</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -5999,18 +5999,18 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>18:00-19:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E180" t="n">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="F180" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>MIG</t>
         </is>
       </c>
     </row>
@@ -6020,7 +6020,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-CMN-RES</t>
+          <t>COV-MIGRAZIONE-35</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -6030,18 +6030,18 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>19:00-20:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="F181" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>MIG</t>
         </is>
       </c>
     </row>
@@ -6051,7 +6051,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-CMN-RES</t>
+          <t>COV-MIGRAZIONE-35</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -6061,18 +6061,18 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>20:00-21:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="F182" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>MIG</t>
         </is>
       </c>
     </row>
@@ -6082,7 +6082,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-CMN-RES</t>
+          <t>COV-MIGRAZIONE-35</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -6092,18 +6092,18 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>21:00-22:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="F183" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>MIG</t>
         </is>
       </c>
     </row>
@@ -6113,7 +6113,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-CMN-RES</t>
+          <t>COV-MIGRAZIONE-35</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -6123,18 +6123,18 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>22:00-23:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E184" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="F184" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>MIG</t>
         </is>
       </c>
     </row>
@@ -6144,7 +6144,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-CMN-RES</t>
+          <t>COV-MIGRAZIONE-35</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -6154,18 +6154,18 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>23:00-24:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="F185" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>IPR</t>
+          <t>MIG</t>
         </is>
       </c>
     </row>
@@ -6185,14 +6185,14 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>16:00-17:00</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="F186" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>COV-MIGRAZIONE-37</t>
+          <t>COV-MIGRAZIONE-35</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -6216,14 +6216,14 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="E187" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F187" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -6237,7 +6237,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>COV-MIGRAZIONE-37</t>
+          <t>COV-MIGRAZIONE-35</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -6247,14 +6247,14 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>18:00-19:00</t>
         </is>
       </c>
       <c r="E188" t="n">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="F188" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -6268,7 +6268,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>COV-MOBILE MNP</t>
+          <t>COV-MIGRAZIONE-35</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -6278,18 +6278,18 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>19:00-20:00</t>
         </is>
       </c>
       <c r="E189" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F189" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MIG</t>
         </is>
       </c>
     </row>
@@ -6299,7 +6299,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>COV-MOBILE MNP</t>
+          <t>COV-MIGRAZIONE-35</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -6309,18 +6309,18 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>20:00-21:00</t>
         </is>
       </c>
       <c r="E190" t="n">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="F190" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MIG</t>
         </is>
       </c>
     </row>
@@ -6330,7 +6330,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>COV-MOBILE MNP</t>
+          <t>COV-MIGRAZIONE-35</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -6340,18 +6340,18 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>21:00-22:00</t>
         </is>
       </c>
       <c r="E191" t="n">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="F191" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MIG</t>
         </is>
       </c>
     </row>
@@ -6361,7 +6361,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>COV-MOBILE MNP</t>
+          <t>COV-MIGRAZIONE-35</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -6371,18 +6371,18 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>22:00-23:00</t>
         </is>
       </c>
       <c r="E192" t="n">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MIG</t>
         </is>
       </c>
     </row>
@@ -6392,7 +6392,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>COV-MOBILE MNP</t>
+          <t>COV-MIGRAZIONE-35</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -6402,18 +6402,18 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>23:00-24:00</t>
         </is>
       </c>
       <c r="E193" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F193" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MIG</t>
         </is>
       </c>
     </row>
@@ -6423,7 +6423,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>COV-MOBILE MNP</t>
+          <t>COV-MIGRAZIONE-37</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -6433,18 +6433,18 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E194" t="n">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="F194" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MIG</t>
         </is>
       </c>
     </row>
@@ -6454,7 +6454,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>COV-MOBILE MNP</t>
+          <t>COV-MIGRAZIONE-37</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -6464,18 +6464,18 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E195" t="n">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="F195" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MIG</t>
         </is>
       </c>
     </row>
@@ -6485,7 +6485,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>COV-MOBILE MNP</t>
+          <t>COV-MIGRAZIONE-37</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -6495,18 +6495,18 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E196" t="n">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="F196" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MIG</t>
         </is>
       </c>
     </row>
@@ -6516,7 +6516,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>COV-MOBILE MNP</t>
+          <t>COV-MIGRAZIONE-37</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -6526,18 +6526,18 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>16:00-17:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E197" t="n">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F197" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MIG</t>
         </is>
       </c>
     </row>
@@ -6547,7 +6547,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>COV-MOBILE MNP</t>
+          <t>COV-MIGRAZIONE-37</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -6557,18 +6557,18 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E198" t="n">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="F198" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MIG</t>
         </is>
       </c>
     </row>
@@ -6578,7 +6578,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>COV-MOBILE MNP</t>
+          <t>COV-MIGRAZIONE-37</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -6588,18 +6588,18 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>18:00-19:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E199" t="n">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="F199" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MIG</t>
         </is>
       </c>
     </row>
@@ -6609,7 +6609,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>COV-MOBILE MNP</t>
+          <t>COV-MIGRAZIONE-37</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -6619,18 +6619,18 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>19:00-20:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E200" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="F200" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MIG</t>
         </is>
       </c>
     </row>
@@ -6640,7 +6640,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>COV-MOBILE MNP</t>
+          <t>COV-MIGRAZIONE-37</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -6650,18 +6650,18 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>20:00-21:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E201" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F201" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MIG</t>
         </is>
       </c>
     </row>
@@ -6671,7 +6671,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>COV-MOBILE MNP</t>
+          <t>COV-MIGRAZIONE-37</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -6681,18 +6681,18 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>21:00-22:00</t>
+          <t>16:00-17:00</t>
         </is>
       </c>
       <c r="E202" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F202" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MIG</t>
         </is>
       </c>
     </row>
@@ -6702,7 +6702,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>COV-MOBILE MNP</t>
+          <t>COV-MIGRAZIONE-37</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -6712,18 +6712,18 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>22:00-23:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="E203" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F203" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MIG</t>
         </is>
       </c>
     </row>
@@ -6733,7 +6733,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>COV-MOBILE MNP</t>
+          <t>COV-MIGRAZIONE-37</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -6743,18 +6743,18 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>23:00-24:00</t>
+          <t>18:00-19:00</t>
         </is>
       </c>
       <c r="E204" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F204" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MIG</t>
         </is>
       </c>
     </row>
@@ -6764,7 +6764,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+          <t>COV-MIGRAZIONE-37</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -6774,18 +6774,18 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>19:00-20:00</t>
         </is>
       </c>
       <c r="E205" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F205" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MIG</t>
         </is>
       </c>
     </row>
@@ -6795,7 +6795,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+          <t>COV-MIGRAZIONE-37</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -6805,18 +6805,18 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>20:00-21:00</t>
         </is>
       </c>
       <c r="E206" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="F206" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MIG</t>
         </is>
       </c>
     </row>
@@ -6826,7 +6826,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+          <t>COV-MIGRAZIONE-37</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -6836,18 +6836,18 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>21:00-22:00</t>
         </is>
       </c>
       <c r="E207" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MIG</t>
         </is>
       </c>
     </row>
@@ -6857,7 +6857,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+          <t>COV-MIGRAZIONE-37</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -6867,18 +6867,18 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>22:00-23:00</t>
         </is>
       </c>
       <c r="E208" t="n">
+        <v>0</v>
+      </c>
+      <c r="F208" t="n">
         <v>23</v>
       </c>
-      <c r="F208" t="n">
-        <v>11</v>
-      </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MIG</t>
         </is>
       </c>
     </row>
@@ -6888,7 +6888,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+          <t>COV-MIGRAZIONE-37</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -6898,18 +6898,18 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>23:00-24:00</t>
         </is>
       </c>
       <c r="E209" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F209" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MIG</t>
         </is>
       </c>
     </row>
@@ -6919,7 +6919,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+          <t>COV-MOBILE MNP</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -6929,14 +6929,14 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E210" t="n">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="F210" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -6950,7 +6950,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+          <t>COV-MOBILE MNP</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -6960,14 +6960,14 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E211" t="n">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="F211" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+          <t>COV-MOBILE MNP</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -6991,14 +6991,14 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E212" t="n">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="F212" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+          <t>COV-MOBILE MNP</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -7022,14 +7022,14 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>16:00-17:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E213" t="n">
-        <v>19</v>
+        <v>121</v>
       </c>
       <c r="F213" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+          <t>COV-MOBILE MNP</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -7053,14 +7053,14 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E214" t="n">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="F214" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+          <t>COV-MOBILE MNP</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -7084,14 +7084,14 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>18:00-19:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E215" t="n">
+        <v>93</v>
+      </c>
+      <c r="F215" t="n">
         <v>14</v>
-      </c>
-      <c r="F215" t="n">
-        <v>18</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -7105,7 +7105,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+          <t>COV-MOBILE MNP</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -7115,14 +7115,14 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>19:00-20:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E216" t="n">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="F216" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -7136,7 +7136,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+          <t>COV-MOBILE MNP</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -7146,14 +7146,14 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>20:00-21:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E217" t="n">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F217" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+          <t>COV-MOBILE MNP</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -7177,14 +7177,14 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>21:00-22:00</t>
+          <t>16:00-17:00</t>
         </is>
       </c>
       <c r="E218" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="F218" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+          <t>COV-MOBILE MNP</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -7208,14 +7208,14 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>22:00-23:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="E219" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="F219" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+          <t>COV-MOBILE MNP</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -7239,14 +7239,14 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>23:00-24:00</t>
+          <t>18:00-19:00</t>
         </is>
       </c>
       <c r="E220" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="F220" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -7260,7 +7260,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>COV-TESTING-RES</t>
+          <t>COV-MOBILE MNP</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -7270,18 +7270,18 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>19:00-20:00</t>
         </is>
       </c>
       <c r="E221" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="F221" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>TST</t>
+          <t>MOB PRE</t>
         </is>
       </c>
     </row>
@@ -7291,7 +7291,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>COV-TESTING-RES</t>
+          <t>COV-MOBILE MNP</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -7301,18 +7301,18 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>20:00-21:00</t>
         </is>
       </c>
       <c r="E222" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F222" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>TST</t>
+          <t>MOB PRE</t>
         </is>
       </c>
     </row>
@@ -7322,7 +7322,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>COV-TESTING-RES</t>
+          <t>COV-MOBILE MNP</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -7332,18 +7332,18 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>21:00-22:00</t>
         </is>
       </c>
       <c r="E223" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F223" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>TST</t>
+          <t>MOB PRE</t>
         </is>
       </c>
     </row>
@@ -7353,7 +7353,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>COV-TESTING-RES</t>
+          <t>COV-MOBILE MNP</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -7363,18 +7363,18 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>22:00-23:00</t>
         </is>
       </c>
       <c r="E224" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F224" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>TST</t>
+          <t>MOB PRE</t>
         </is>
       </c>
     </row>
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>COV-TESTING-RES</t>
+          <t>COV-MOBILE MNP</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -7394,18 +7394,18 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>23:00-24:00</t>
         </is>
       </c>
       <c r="E225" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F225" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>TST</t>
+          <t>MOB PRE</t>
         </is>
       </c>
     </row>
@@ -7415,7 +7415,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>COV-TESTING-RES</t>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -7425,18 +7425,18 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E226" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F226" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>TST</t>
+          <t>MOB PRE</t>
         </is>
       </c>
     </row>
@@ -7446,7 +7446,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>COV-TESTING-RES</t>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -7456,18 +7456,18 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E227" t="n">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="F227" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>TST</t>
+          <t>MOB PRE</t>
         </is>
       </c>
     </row>
@@ -7477,7 +7477,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>COV-TESTING-RES</t>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -7487,18 +7487,18 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E228" t="n">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="F228" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>TST</t>
+          <t>MOB PRE</t>
         </is>
       </c>
     </row>
@@ -7508,7 +7508,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>COV-TESTING-RES</t>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -7518,18 +7518,18 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>16:00-17:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E229" t="n">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="F229" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>TST</t>
+          <t>MOB PRE</t>
         </is>
       </c>
     </row>
@@ -7539,7 +7539,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>COV-TESTING-RES</t>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -7549,18 +7549,18 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E230" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="F230" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>TST</t>
+          <t>MOB PRE</t>
         </is>
       </c>
     </row>
@@ -7570,7 +7570,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>COV-TESTING-RES</t>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -7580,18 +7580,18 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>18:00-19:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E231" t="n">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="F231" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>TST</t>
+          <t>MOB PRE</t>
         </is>
       </c>
     </row>
@@ -7601,7 +7601,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>COV-TESTING-RES</t>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -7611,18 +7611,18 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>19:00-20:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E232" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F232" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>TST</t>
+          <t>MOB PRE</t>
         </is>
       </c>
     </row>
@@ -7632,7 +7632,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>COV-TESTING-RES</t>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -7642,18 +7642,18 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>20:00-21:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E233" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="F233" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>TST</t>
+          <t>MOB PRE</t>
         </is>
       </c>
     </row>
@@ -7663,7 +7663,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>COV-TESTING-RES</t>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -7673,18 +7673,18 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>21:00-22:00</t>
+          <t>16:00-17:00</t>
         </is>
       </c>
       <c r="E234" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F234" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>TST</t>
+          <t>MOB PRE</t>
         </is>
       </c>
     </row>
@@ -7694,7 +7694,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>COV-TESTING-RES</t>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -7704,18 +7704,18 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>22:00-23:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="E235" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F235" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>TST</t>
+          <t>MOB PRE</t>
         </is>
       </c>
     </row>
@@ -7725,7 +7725,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>COV-TESTING-RES</t>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -7735,18 +7735,18 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>23:00-24:00</t>
+          <t>18:00-19:00</t>
         </is>
       </c>
       <c r="E236" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F236" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>TST</t>
+          <t>MOB PRE</t>
         </is>
       </c>
     </row>
@@ -7756,7 +7756,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>COV-WELCOME-CMN-RES</t>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -7766,18 +7766,18 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>19:00-20:00</t>
         </is>
       </c>
       <c r="E237" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F237" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>MOB PRE</t>
         </is>
       </c>
     </row>
@@ -7787,7 +7787,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>COV-WELCOME-CMN-RES</t>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -7797,18 +7797,18 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>20:00-21:00</t>
         </is>
       </c>
       <c r="E238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F238" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>MOB PRE</t>
         </is>
       </c>
     </row>
@@ -7818,7 +7818,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>COV-WELCOME-CMN-RES</t>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -7828,18 +7828,18 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>21:00-22:00</t>
         </is>
       </c>
       <c r="E239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F239" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>MOB PRE</t>
         </is>
       </c>
     </row>
@@ -7849,7 +7849,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>COV-WELCOME-CMN-RES</t>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -7859,18 +7859,18 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>22:00-23:00</t>
         </is>
       </c>
       <c r="E240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F240" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>MOB PRE</t>
         </is>
       </c>
     </row>
@@ -7880,7 +7880,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>COV-WELCOME-CMN-RES</t>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -7890,18 +7890,18 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>23:00-24:00</t>
         </is>
       </c>
       <c r="E241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F241" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>MOB PRE</t>
         </is>
       </c>
     </row>
@@ -7911,7 +7911,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>COV-WELCOME-CMN-RES</t>
+          <t>COV-TESTING-RES</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -7921,18 +7921,18 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F242" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>TST</t>
         </is>
       </c>
     </row>
@@ -7942,7 +7942,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>COV-WELCOME-CMN-RES</t>
+          <t>COV-TESTING-RES</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -7952,18 +7952,18 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E243" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F243" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>TST</t>
         </is>
       </c>
     </row>
@@ -7973,7 +7973,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>COV-WELCOME-CMN-RES</t>
+          <t>COV-TESTING-RES</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -7983,18 +7983,18 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E244" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F244" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>TST</t>
         </is>
       </c>
     </row>
@@ -8004,7 +8004,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>COV-WELCOME-CMN-RES</t>
+          <t>COV-TESTING-RES</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -8014,18 +8014,18 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>16:00-17:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E245" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="F245" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>TST</t>
         </is>
       </c>
     </row>
@@ -8035,7 +8035,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>COV-WELCOME-CMN-RES</t>
+          <t>COV-TESTING-RES</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -8045,18 +8045,18 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E246" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F246" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>TST</t>
         </is>
       </c>
     </row>
@@ -8066,7 +8066,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>COV-WELCOME-CMN-RES</t>
+          <t>COV-TESTING-RES</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -8076,18 +8076,18 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>18:00-19:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E247" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F247" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>TST</t>
         </is>
       </c>
     </row>
@@ -8097,7 +8097,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>COV-WELCOME-CMN-RES</t>
+          <t>COV-TESTING-RES</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -8107,18 +8107,18 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>19:00-20:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E248" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F248" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>TST</t>
         </is>
       </c>
     </row>
@@ -8128,7 +8128,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>COV-WELCOME-CMN-RES</t>
+          <t>COV-TESTING-RES</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -8138,18 +8138,18 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>20:00-21:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E249" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F249" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>TST</t>
         </is>
       </c>
     </row>
@@ -8159,7 +8159,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>COV-WELCOME-CMN-RES</t>
+          <t>COV-TESTING-RES</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -8169,18 +8169,18 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>21:00-22:00</t>
+          <t>16:00-17:00</t>
         </is>
       </c>
       <c r="E250" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F250" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>TST</t>
         </is>
       </c>
     </row>
@@ -8190,7 +8190,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>COV-WELCOME-CMN-RES</t>
+          <t>COV-TESTING-RES</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -8200,18 +8200,18 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>22:00-23:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="E251" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F251" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>TST</t>
         </is>
       </c>
     </row>
@@ -8221,7 +8221,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>COV-WELCOME-CMN-RES</t>
+          <t>COV-TESTING-RES</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -8231,18 +8231,18 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>23:00-24:00</t>
+          <t>18:00-19:00</t>
         </is>
       </c>
       <c r="E252" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F252" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>TST</t>
         </is>
       </c>
     </row>
@@ -8252,7 +8252,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>COV-WELCOME-RES</t>
+          <t>COV-TESTING-RES</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -8262,18 +8262,18 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>19:00-20:00</t>
         </is>
       </c>
       <c r="E253" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F253" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>TST</t>
         </is>
       </c>
     </row>
@@ -8283,7 +8283,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>COV-WELCOME-RES</t>
+          <t>COV-TESTING-RES</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -8293,18 +8293,18 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>20:00-21:00</t>
         </is>
       </c>
       <c r="E254" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F254" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>TST</t>
         </is>
       </c>
     </row>
@@ -8314,7 +8314,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>COV-WELCOME-RES</t>
+          <t>COV-TESTING-RES</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -8324,18 +8324,18 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>21:00-22:00</t>
         </is>
       </c>
       <c r="E255" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F255" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>TST</t>
         </is>
       </c>
     </row>
@@ -8345,7 +8345,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>COV-WELCOME-RES</t>
+          <t>COV-TESTING-RES</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -8355,18 +8355,18 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>22:00-23:00</t>
         </is>
       </c>
       <c r="E256" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F256" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>TST</t>
         </is>
       </c>
     </row>
@@ -8376,7 +8376,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>COV-WELCOME-RES</t>
+          <t>COV-TESTING-RES</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -8386,18 +8386,18 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>23:00-24:00</t>
         </is>
       </c>
       <c r="E257" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F257" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>TST</t>
         </is>
       </c>
     </row>
@@ -8407,7 +8407,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>COV-WELCOME-RES</t>
+          <t>COV-WELCOME-CMN-RES</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -8417,14 +8417,14 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E258" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F258" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -8438,7 +8438,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>COV-WELCOME-RES</t>
+          <t>COV-WELCOME-CMN-RES</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -8448,14 +8448,14 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E259" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F259" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
@@ -8469,7 +8469,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>COV-WELCOME-RES</t>
+          <t>COV-WELCOME-CMN-RES</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -8479,14 +8479,14 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E260" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F260" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -8500,7 +8500,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>COV-WELCOME-RES</t>
+          <t>COV-WELCOME-CMN-RES</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -8510,14 +8510,14 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>16:00-17:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E261" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F261" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -8531,7 +8531,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>COV-WELCOME-RES</t>
+          <t>COV-WELCOME-CMN-RES</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -8541,14 +8541,14 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E262" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F262" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -8562,7 +8562,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>COV-WELCOME-RES</t>
+          <t>COV-WELCOME-CMN-RES</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -8572,14 +8572,14 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>18:00-19:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E263" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F263" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -8593,7 +8593,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>COV-WELCOME-RES</t>
+          <t>COV-WELCOME-CMN-RES</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -8603,14 +8603,14 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>19:00-20:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E264" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F264" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>COV-WELCOME-RES</t>
+          <t>COV-WELCOME-CMN-RES</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -8634,14 +8634,14 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>20:00-21:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E265" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F265" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>COV-WELCOME-RES</t>
+          <t>COV-WELCOME-CMN-RES</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -8665,14 +8665,14 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>21:00-22:00</t>
+          <t>16:00-17:00</t>
         </is>
       </c>
       <c r="E266" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F266" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -8686,7 +8686,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>COV-WELCOME-RES</t>
+          <t>COV-WELCOME-CMN-RES</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -8696,14 +8696,14 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>22:00-23:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="E267" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F267" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -8717,26 +8717,677 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
+          <t>COV-WELCOME-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>18:00-19:00</t>
+        </is>
+      </c>
+      <c r="E268" t="n">
+        <v>3</v>
+      </c>
+      <c r="F268" t="n">
+        <v>19</v>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>19:00-20:00</t>
+        </is>
+      </c>
+      <c r="E269" t="n">
+        <v>0</v>
+      </c>
+      <c r="F269" t="n">
+        <v>20</v>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>20:00-21:00</t>
+        </is>
+      </c>
+      <c r="E270" t="n">
+        <v>0</v>
+      </c>
+      <c r="F270" t="n">
+        <v>21</v>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>21:00-22:00</t>
+        </is>
+      </c>
+      <c r="E271" t="n">
+        <v>1</v>
+      </c>
+      <c r="F271" t="n">
+        <v>22</v>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>22:00-23:00</t>
+        </is>
+      </c>
+      <c r="E272" t="n">
+        <v>0</v>
+      </c>
+      <c r="F272" t="n">
+        <v>23</v>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-CMN-RES</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>23:00-24:00</t>
+        </is>
+      </c>
+      <c r="E273" t="n">
+        <v>0</v>
+      </c>
+      <c r="F273" t="n">
+        <v>24</v>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
           <t>COV-WELCOME-RES</t>
         </is>
       </c>
-      <c r="C268" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="D268" t="inlineStr">
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>08:00-09:00</t>
+        </is>
+      </c>
+      <c r="E274" t="n">
+        <v>4</v>
+      </c>
+      <c r="F274" t="n">
+        <v>9</v>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>09:00-10:00</t>
+        </is>
+      </c>
+      <c r="E275" t="n">
+        <v>12</v>
+      </c>
+      <c r="F275" t="n">
+        <v>10</v>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>10:00-11:00</t>
+        </is>
+      </c>
+      <c r="E276" t="n">
+        <v>11</v>
+      </c>
+      <c r="F276" t="n">
+        <v>11</v>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>11:00-12:00</t>
+        </is>
+      </c>
+      <c r="E277" t="n">
+        <v>10</v>
+      </c>
+      <c r="F277" t="n">
+        <v>12</v>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="E278" t="n">
+        <v>9</v>
+      </c>
+      <c r="F278" t="n">
+        <v>13</v>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>13:00-14:00</t>
+        </is>
+      </c>
+      <c r="E279" t="n">
+        <v>9</v>
+      </c>
+      <c r="F279" t="n">
+        <v>14</v>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>14:00-15:00</t>
+        </is>
+      </c>
+      <c r="E280" t="n">
+        <v>11</v>
+      </c>
+      <c r="F280" t="n">
+        <v>15</v>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>15:00-16:00</t>
+        </is>
+      </c>
+      <c r="E281" t="n">
+        <v>11</v>
+      </c>
+      <c r="F281" t="n">
+        <v>16</v>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>16:00-17:00</t>
+        </is>
+      </c>
+      <c r="E282" t="n">
+        <v>12</v>
+      </c>
+      <c r="F282" t="n">
+        <v>17</v>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="E283" t="n">
+        <v>14</v>
+      </c>
+      <c r="F283" t="n">
+        <v>18</v>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>18:00-19:00</t>
+        </is>
+      </c>
+      <c r="E284" t="n">
+        <v>12</v>
+      </c>
+      <c r="F284" t="n">
+        <v>19</v>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>19:00-20:00</t>
+        </is>
+      </c>
+      <c r="E285" t="n">
+        <v>12</v>
+      </c>
+      <c r="F285" t="n">
+        <v>20</v>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>20:00-21:00</t>
+        </is>
+      </c>
+      <c r="E286" t="n">
+        <v>6</v>
+      </c>
+      <c r="F286" t="n">
+        <v>21</v>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>21:00-22:00</t>
+        </is>
+      </c>
+      <c r="E287" t="n">
+        <v>4</v>
+      </c>
+      <c r="F287" t="n">
+        <v>22</v>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>22:00-23:00</t>
+        </is>
+      </c>
+      <c r="E288" t="n">
+        <v>1</v>
+      </c>
+      <c r="F288" t="n">
+        <v>23</v>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>COV-WELCOME-RES</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
         <is>
           <t>23:00-24:00</t>
         </is>
       </c>
-      <c r="E268" t="n">
+      <c r="E289" t="n">
         <v>1</v>
       </c>
-      <c r="F268" t="n">
-        <v>23</v>
-      </c>
-      <c r="G268" t="inlineStr">
+      <c r="F289" t="n">
+        <v>24</v>
+      </c>
+      <c r="G289" t="inlineStr">
         <is>
           <t>WLC</t>
         </is>
